--- a/cypress/downloads/Administradores 1_6_2023.xlsx
+++ b/cypress/downloads/Administradores 1_6_2023.xlsx
@@ -2950,6 +2950,15 @@
     <t>jmendoza@agenciasbi.com.gt</t>
   </si>
   <si>
+    <t>bcar bcar</t>
+  </si>
+  <si>
+    <t>bcar</t>
+  </si>
+  <si>
+    <t>bprueba4@yopmail.com</t>
+  </si>
+  <si>
     <t>Yovani Jon</t>
   </si>
   <si>
@@ -4487,9 +4496,6 @@
   </si>
   <si>
     <t>juan</t>
-  </si>
-  <si>
-    <t>bcar bcar</t>
   </si>
   <si>
     <t>bas</t>
@@ -13233,19 +13239,22 @@
         <v>981</v>
       </c>
       <c r="D298" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E298" s="2">
-        <v>44915.659373622686</v>
+        <v>45078.8797697338</v>
       </c>
       <c r="F298" s="2">
-        <v>44916.67962962963</v>
+        <v>45078.8797697338</v>
       </c>
       <c r="G298" t="s">
         <v>13</v>
       </c>
       <c r="H298" t="s">
-        <v>333</v>
+        <v>14</v>
+      </c>
+      <c r="I298" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="299">
@@ -13262,16 +13271,16 @@
         <v>71</v>
       </c>
       <c r="E299" s="2">
-        <v>44859.92222574074</v>
+        <v>44915.659373622686</v>
       </c>
       <c r="F299" s="2">
-        <v>44859.92222574074</v>
+        <v>44916.67962962963</v>
       </c>
       <c r="G299" t="s">
         <v>13</v>
       </c>
       <c r="H299" t="s">
-        <v>122</v>
+        <v>333</v>
       </c>
     </row>
     <row r="300">
@@ -13288,16 +13297,16 @@
         <v>71</v>
       </c>
       <c r="E300" s="2">
-        <v>44859.91594423611</v>
+        <v>44859.92222574074</v>
       </c>
       <c r="F300" s="2">
-        <v>44859.91594423611</v>
+        <v>44859.92222574074</v>
       </c>
       <c r="G300" t="s">
         <v>13</v>
       </c>
       <c r="H300" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
     </row>
     <row r="301">
@@ -13314,16 +13323,16 @@
         <v>71</v>
       </c>
       <c r="E301" s="2">
-        <v>44914.918416493056</v>
+        <v>44859.91594423611</v>
       </c>
       <c r="F301" s="2">
-        <v>44915.76221958333</v>
+        <v>44859.91594423611</v>
       </c>
       <c r="G301" t="s">
         <v>13</v>
       </c>
       <c r="H301" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
     </row>
     <row r="302">
@@ -13337,16 +13346,19 @@
         <v>993</v>
       </c>
       <c r="D302" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E302" s="2">
-        <v>44872.724377465274</v>
+        <v>44914.918416493056</v>
       </c>
       <c r="F302" s="2">
-        <v>44872.724377465274</v>
+        <v>44915.76221958333</v>
       </c>
       <c r="G302" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="H302" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="303">
@@ -13360,19 +13372,16 @@
         <v>996</v>
       </c>
       <c r="D303" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E303" s="2">
-        <v>44859.921138668986</v>
+        <v>44872.724377465274</v>
       </c>
       <c r="F303" s="2">
-        <v>44859.921138668986</v>
+        <v>44872.724377465274</v>
       </c>
       <c r="G303" t="s">
-        <v>13</v>
-      </c>
-      <c r="H303" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="304">
@@ -13389,68 +13398,68 @@
         <v>71</v>
       </c>
       <c r="E304" s="2">
-        <v>44859.92672290509</v>
+        <v>44859.921138668986</v>
       </c>
       <c r="F304" s="2">
-        <v>44859.92672290509</v>
+        <v>44859.921138668986</v>
       </c>
       <c r="G304" t="s">
         <v>13</v>
       </c>
       <c r="H304" t="s">
-        <v>1000</v>
+        <v>122</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B305" t="s">
         <v>1001</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>1002</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
+        <v>71</v>
+      </c>
+      <c r="E305" s="2">
+        <v>44859.92672290509</v>
+      </c>
+      <c r="F305" s="2">
+        <v>44859.92672290509</v>
+      </c>
+      <c r="G305" t="s">
+        <v>13</v>
+      </c>
+      <c r="H305" t="s">
         <v>1003</v>
-      </c>
-      <c r="D305" t="s">
-        <v>12</v>
-      </c>
-      <c r="E305" s="2">
-        <v>44887.849259131945</v>
-      </c>
-      <c r="F305" s="2">
-        <v>44887.849259131945</v>
-      </c>
-      <c r="G305" t="s">
-        <v>13</v>
-      </c>
-      <c r="H305" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B306" t="s">
         <v>1005</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" t="s">
         <v>1006</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
+        <v>12</v>
+      </c>
+      <c r="E306" s="2">
+        <v>44887.849259131945</v>
+      </c>
+      <c r="F306" s="2">
+        <v>44887.849259131945</v>
+      </c>
+      <c r="G306" t="s">
+        <v>13</v>
+      </c>
+      <c r="H306" t="s">
         <v>1007</v>
-      </c>
-      <c r="D306" t="s">
-        <v>71</v>
-      </c>
-      <c r="E306" s="2">
-        <v>44859.926138310184</v>
-      </c>
-      <c r="F306" s="2">
-        <v>44859.926138310184</v>
-      </c>
-      <c r="G306" t="s">
-        <v>13</v>
-      </c>
-      <c r="H306" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="307">
@@ -13467,16 +13476,16 @@
         <v>71</v>
       </c>
       <c r="E307" s="2">
-        <v>44859.93869896991</v>
+        <v>44859.926138310184</v>
       </c>
       <c r="F307" s="2">
-        <v>44859.93869896991</v>
+        <v>44859.926138310184</v>
       </c>
       <c r="G307" t="s">
         <v>13</v>
       </c>
       <c r="H307" t="s">
-        <v>851</v>
+        <v>632</v>
       </c>
     </row>
     <row r="308">
@@ -13490,19 +13499,19 @@
         <v>1013</v>
       </c>
       <c r="D308" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E308" s="2">
-        <v>44886.753175555554</v>
+        <v>44859.93869896991</v>
       </c>
       <c r="F308" s="2">
-        <v>44886.753175555554</v>
+        <v>44859.93869896991</v>
       </c>
       <c r="G308" t="s">
         <v>13</v>
       </c>
       <c r="H308" t="s">
-        <v>189</v>
+        <v>851</v>
       </c>
     </row>
     <row r="309">
@@ -13516,19 +13525,19 @@
         <v>1016</v>
       </c>
       <c r="D309" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E309" s="2">
-        <v>44859.937253344906</v>
+        <v>44886.753175555554</v>
       </c>
       <c r="F309" s="2">
-        <v>44859.937253344906</v>
+        <v>44886.753175555554</v>
       </c>
       <c r="G309" t="s">
         <v>13</v>
       </c>
       <c r="H309" t="s">
-        <v>528</v>
+        <v>189</v>
       </c>
     </row>
     <row r="310">
@@ -13545,16 +13554,16 @@
         <v>71</v>
       </c>
       <c r="E310" s="2">
-        <v>44859.93325635417</v>
+        <v>44859.937253344906</v>
       </c>
       <c r="F310" s="2">
-        <v>44859.93325635417</v>
+        <v>44859.937253344906</v>
       </c>
       <c r="G310" t="s">
         <v>13</v>
       </c>
       <c r="H310" t="s">
-        <v>401</v>
+        <v>528</v>
       </c>
     </row>
     <row r="311">
@@ -13571,42 +13580,42 @@
         <v>71</v>
       </c>
       <c r="E311" s="2">
-        <v>44859.927606840276</v>
+        <v>44859.93325635417</v>
       </c>
       <c r="F311" s="2">
-        <v>44879.879016203704</v>
+        <v>44859.93325635417</v>
       </c>
       <c r="G311" t="s">
         <v>13</v>
       </c>
       <c r="H311" t="s">
-        <v>1023</v>
+        <v>401</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B312" t="s">
         <v>1024</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
         <v>1025</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
+        <v>71</v>
+      </c>
+      <c r="E312" s="2">
+        <v>44859.927606840276</v>
+      </c>
+      <c r="F312" s="2">
+        <v>44879.879016203704</v>
+      </c>
+      <c r="G312" t="s">
+        <v>13</v>
+      </c>
+      <c r="H312" t="s">
         <v>1026</v>
-      </c>
-      <c r="D312" t="s">
-        <v>71</v>
-      </c>
-      <c r="E312" s="2">
-        <v>44859.931254490744</v>
-      </c>
-      <c r="F312" s="2">
-        <v>44859.931254490744</v>
-      </c>
-      <c r="G312" t="s">
-        <v>13</v>
-      </c>
-      <c r="H312" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="313">
@@ -13623,16 +13632,16 @@
         <v>71</v>
       </c>
       <c r="E313" s="2">
-        <v>44859.927753553246</v>
+        <v>44859.931254490744</v>
       </c>
       <c r="F313" s="2">
-        <v>44881.685949074075</v>
+        <v>44859.931254490744</v>
       </c>
       <c r="G313" t="s">
         <v>13</v>
       </c>
       <c r="H313" t="s">
-        <v>204</v>
+        <v>365</v>
       </c>
     </row>
     <row r="314">
@@ -13649,16 +13658,16 @@
         <v>71</v>
       </c>
       <c r="E314" s="2">
-        <v>44859.92360006944</v>
+        <v>44859.927753553246</v>
       </c>
       <c r="F314" s="2">
-        <v>44859.92360006944</v>
+        <v>44881.685949074075</v>
       </c>
       <c r="G314" t="s">
         <v>13</v>
       </c>
       <c r="H314" t="s">
-        <v>337</v>
+        <v>204</v>
       </c>
     </row>
     <row r="315">
@@ -13675,16 +13684,16 @@
         <v>71</v>
       </c>
       <c r="E315" s="2">
-        <v>44859.921600960646</v>
+        <v>44859.92360006944</v>
       </c>
       <c r="F315" s="2">
-        <v>44859.921600960646</v>
+        <v>44859.92360006944</v>
       </c>
       <c r="G315" t="s">
         <v>13</v>
       </c>
       <c r="H315" t="s">
-        <v>122</v>
+        <v>337</v>
       </c>
     </row>
     <row r="316">
@@ -13701,16 +13710,16 @@
         <v>71</v>
       </c>
       <c r="E316" s="2">
-        <v>44859.92739241898</v>
+        <v>44859.921600960646</v>
       </c>
       <c r="F316" s="2">
-        <v>44887.735497685186</v>
+        <v>44859.921600960646</v>
       </c>
       <c r="G316" t="s">
         <v>13</v>
       </c>
       <c r="H316" t="s">
-        <v>1004</v>
+        <v>122</v>
       </c>
     </row>
     <row r="317">
@@ -13727,16 +13736,16 @@
         <v>71</v>
       </c>
       <c r="E317" s="2">
-        <v>44908.96585122685</v>
+        <v>44859.92739241898</v>
       </c>
       <c r="F317" s="2">
-        <v>44924.830405092594</v>
+        <v>44887.735497685186</v>
       </c>
       <c r="G317" t="s">
         <v>13</v>
       </c>
       <c r="H317" t="s">
-        <v>868</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="318">
@@ -13753,65 +13762,65 @@
         <v>71</v>
       </c>
       <c r="E318" s="2">
-        <v>44859.92746070602</v>
+        <v>44908.96585122685</v>
       </c>
       <c r="F318" s="2">
-        <v>44859.92746070602</v>
+        <v>44924.830405092594</v>
       </c>
       <c r="G318" t="s">
         <v>13</v>
       </c>
       <c r="H318" t="s">
-        <v>1045</v>
+        <v>868</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B319" t="s">
         <v>1046</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1047</v>
       </c>
       <c r="C319" t="s">
         <v>1047</v>
       </c>
       <c r="D319" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E319" s="2">
-        <v>44943.713170682866</v>
+        <v>44859.92746070602</v>
       </c>
       <c r="F319" s="2">
-        <v>44943.713170682866</v>
+        <v>44859.92746070602</v>
       </c>
       <c r="G319" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B320" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C320" t="s">
         <v>1050</v>
       </c>
       <c r="D320" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E320" s="2">
-        <v>44859.92175833334</v>
+        <v>44943.713170682866</v>
       </c>
       <c r="F320" s="2">
-        <v>44859.92175833334</v>
+        <v>44943.713170682866</v>
       </c>
       <c r="G320" t="s">
-        <v>13</v>
-      </c>
-      <c r="H320" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321">
@@ -13828,16 +13837,16 @@
         <v>71</v>
       </c>
       <c r="E321" s="2">
-        <v>44859.91995111111</v>
+        <v>44859.92175833334</v>
       </c>
       <c r="F321" s="2">
-        <v>44859.91995111111</v>
+        <v>44859.92175833334</v>
       </c>
       <c r="G321" t="s">
         <v>13</v>
       </c>
       <c r="H321" t="s">
-        <v>563</v>
+        <v>122</v>
       </c>
     </row>
     <row r="322">
@@ -13851,19 +13860,19 @@
         <v>1056</v>
       </c>
       <c r="D322" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E322" s="2">
-        <v>44886.75412770834</v>
+        <v>44859.91995111111</v>
       </c>
       <c r="F322" s="2">
-        <v>44886.75412770834</v>
+        <v>44859.91995111111</v>
       </c>
       <c r="G322" t="s">
         <v>13</v>
       </c>
       <c r="H322" t="s">
-        <v>189</v>
+        <v>563</v>
       </c>
     </row>
     <row r="323">
@@ -13877,16 +13886,19 @@
         <v>1059</v>
       </c>
       <c r="D323" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E323" s="2">
-        <v>44914.87972537037</v>
+        <v>44886.75412770834</v>
       </c>
       <c r="F323" s="2">
-        <v>44987.79256944444</v>
+        <v>44886.75412770834</v>
       </c>
       <c r="G323" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H323" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="324">
@@ -13900,19 +13912,16 @@
         <v>1062</v>
       </c>
       <c r="D324" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E324" s="2">
-        <v>44859.934118703706</v>
+        <v>44914.87972537037</v>
       </c>
       <c r="F324" s="2">
-        <v>44859.934118703706</v>
+        <v>44987.79256944444</v>
       </c>
       <c r="G324" t="s">
-        <v>13</v>
-      </c>
-      <c r="H324" t="s">
-        <v>387</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325">
@@ -13929,16 +13938,16 @@
         <v>71</v>
       </c>
       <c r="E325" s="2">
-        <v>44859.92386898148</v>
+        <v>44859.934118703706</v>
       </c>
       <c r="F325" s="2">
-        <v>44859.92386898148</v>
+        <v>44859.934118703706</v>
       </c>
       <c r="G325" t="s">
         <v>13</v>
       </c>
       <c r="H325" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="326">
@@ -13955,16 +13964,16 @@
         <v>71</v>
       </c>
       <c r="E326" s="2">
-        <v>44859.93915077546</v>
+        <v>44859.92386898148</v>
       </c>
       <c r="F326" s="2">
-        <v>44859.93915077546</v>
+        <v>44859.92386898148</v>
       </c>
       <c r="G326" t="s">
         <v>13</v>
       </c>
       <c r="H326" t="s">
-        <v>106</v>
+        <v>397</v>
       </c>
     </row>
     <row r="327">
@@ -13981,16 +13990,16 @@
         <v>71</v>
       </c>
       <c r="E327" s="2">
-        <v>44859.92302912037</v>
+        <v>44859.93915077546</v>
       </c>
       <c r="F327" s="2">
-        <v>44896.88233796296</v>
+        <v>44859.93915077546</v>
       </c>
       <c r="G327" t="s">
         <v>13</v>
       </c>
       <c r="H327" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="328">
@@ -14007,16 +14016,16 @@
         <v>71</v>
       </c>
       <c r="E328" s="2">
-        <v>44859.9248696412</v>
+        <v>44859.92302912037</v>
       </c>
       <c r="F328" s="2">
-        <v>44859.9248696412</v>
+        <v>44896.88233796296</v>
       </c>
       <c r="G328" t="s">
         <v>13</v>
       </c>
       <c r="H328" t="s">
-        <v>622</v>
+        <v>95</v>
       </c>
     </row>
     <row r="329">
@@ -14027,30 +14036,30 @@
         <v>1076</v>
       </c>
       <c r="C329" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D329" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E329" s="2">
-        <v>44889.70962292824</v>
+        <v>44859.9248696412</v>
       </c>
       <c r="F329" s="2">
-        <v>44889.70962292824</v>
+        <v>44859.9248696412</v>
       </c>
       <c r="G329" t="s">
         <v>13</v>
       </c>
       <c r="H329" t="s">
-        <v>150</v>
+        <v>622</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B330" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C330" t="s">
         <v>1079</v>
@@ -14059,41 +14068,44 @@
         <v>12</v>
       </c>
       <c r="E330" s="2">
-        <v>44694.889326874996</v>
+        <v>44889.70962292824</v>
       </c>
       <c r="F330" s="2">
-        <v>44732.885358796295</v>
+        <v>44889.70962292824</v>
       </c>
       <c r="G330" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H330" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>643</v>
+        <v>1080</v>
       </c>
       <c r="B331" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C331" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D331" t="s">
         <v>12</v>
       </c>
       <c r="E331" s="2">
-        <v>44532.76133987268</v>
+        <v>44694.889326874996</v>
       </c>
       <c r="F331" s="2">
-        <v>44986.6653125</v>
+        <v>44732.885358796295</v>
       </c>
       <c r="G331" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>1082</v>
+        <v>643</v>
       </c>
       <c r="B332" t="s">
         <v>1083</v>
@@ -14105,10 +14117,10 @@
         <v>12</v>
       </c>
       <c r="E332" s="2">
-        <v>44740.595978564816</v>
+        <v>44532.76133987268</v>
       </c>
       <c r="F332" s="2">
-        <v>44740.595978564816</v>
+        <v>44986.6653125</v>
       </c>
       <c r="G332" t="s">
         <v>27</v>
@@ -14116,30 +14128,30 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>503</v>
+        <v>1085</v>
       </c>
       <c r="B333" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C333" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D333" t="s">
         <v>12</v>
       </c>
       <c r="E333" s="2">
-        <v>44711.651205671296</v>
+        <v>44740.595978564816</v>
       </c>
       <c r="F333" s="2">
-        <v>44711.651205671296</v>
+        <v>44740.595978564816</v>
       </c>
       <c r="G333" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>1087</v>
+        <v>503</v>
       </c>
       <c r="B334" t="s">
         <v>1088</v>
@@ -14151,13 +14163,13 @@
         <v>12</v>
       </c>
       <c r="E334" s="2">
-        <v>44530.797512199075</v>
+        <v>44711.651205671296</v>
       </c>
       <c r="F334" s="2">
-        <v>44757.836388888885</v>
+        <v>44711.651205671296</v>
       </c>
       <c r="G334" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="335">
@@ -14171,44 +14183,44 @@
         <v>1092</v>
       </c>
       <c r="D335" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E335" s="2">
-        <v>44741.892330462964</v>
+        <v>44530.797512199075</v>
       </c>
       <c r="F335" s="2">
-        <v>44792.90410357639</v>
+        <v>44757.836388888885</v>
       </c>
       <c r="G335" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>9</v>
+        <v>1093</v>
       </c>
       <c r="B336" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C336" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D336" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E336" s="2">
-        <v>44755.74728989584</v>
+        <v>44741.892330462964</v>
       </c>
       <c r="F336" s="2">
-        <v>45013.6722340625</v>
+        <v>44792.90410357639</v>
       </c>
       <c r="G336" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>1095</v>
+        <v>9</v>
       </c>
       <c r="B337" t="s">
         <v>1096</v>
@@ -14220,13 +14232,13 @@
         <v>12</v>
       </c>
       <c r="E337" s="2">
-        <v>44763.806185520836</v>
+        <v>44755.74728989584</v>
       </c>
       <c r="F337" s="2">
-        <v>44763.806185520836</v>
+        <v>45013.6722340625</v>
       </c>
       <c r="G337" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="338">
@@ -14243,13 +14255,13 @@
         <v>12</v>
       </c>
       <c r="E338" s="2">
-        <v>44726.73668635417</v>
+        <v>44763.806185520836</v>
       </c>
       <c r="F338" s="2">
-        <v>44726.73668635417</v>
+        <v>44763.806185520836</v>
       </c>
       <c r="G338" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="339">
@@ -14266,10 +14278,10 @@
         <v>12</v>
       </c>
       <c r="E339" s="2">
-        <v>44690.85051942129</v>
+        <v>44726.73668635417</v>
       </c>
       <c r="F339" s="2">
-        <v>44690.85051942129</v>
+        <v>44726.73668635417</v>
       </c>
       <c r="G339" t="s">
         <v>24</v>
@@ -14289,10 +14301,10 @@
         <v>12</v>
       </c>
       <c r="E340" s="2">
-        <v>44767.76918072917</v>
+        <v>44690.85051942129</v>
       </c>
       <c r="F340" s="2">
-        <v>44790.78398148148</v>
+        <v>44690.85051942129</v>
       </c>
       <c r="G340" t="s">
         <v>24</v>
@@ -14300,22 +14312,22 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>1090</v>
+        <v>1107</v>
       </c>
       <c r="B341" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C341" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D341" t="s">
         <v>12</v>
       </c>
       <c r="E341" s="2">
-        <v>44792.905812453704</v>
+        <v>44767.76918072917</v>
       </c>
       <c r="F341" s="2">
-        <v>45055.77111111111</v>
+        <v>44790.78398148148</v>
       </c>
       <c r="G341" t="s">
         <v>24</v>
@@ -14323,7 +14335,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>1109</v>
+        <v>1093</v>
       </c>
       <c r="B342" t="s">
         <v>1110</v>
@@ -14335,16 +14347,13 @@
         <v>12</v>
       </c>
       <c r="E342" s="2">
-        <v>45068.8864765162</v>
+        <v>44792.905812453704</v>
       </c>
       <c r="F342" s="2">
-        <v>45068.8864765162</v>
+        <v>45055.77111111111</v>
       </c>
       <c r="G342" t="s">
-        <v>13</v>
-      </c>
-      <c r="H342" t="s">
-        <v>512</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343">
@@ -14361,16 +14370,16 @@
         <v>12</v>
       </c>
       <c r="E343" s="2">
-        <v>45069.847108483795</v>
+        <v>45068.8864765162</v>
       </c>
       <c r="F343" s="2">
-        <v>45069.847108483795</v>
+        <v>45068.8864765162</v>
       </c>
       <c r="G343" t="s">
         <v>13</v>
       </c>
       <c r="H343" t="s">
-        <v>14</v>
+        <v>512</v>
       </c>
     </row>
     <row r="344">
@@ -14387,24 +14396,24 @@
         <v>12</v>
       </c>
       <c r="E344" s="2">
-        <v>44883.92298581019</v>
+        <v>45069.847108483795</v>
       </c>
       <c r="F344" s="2">
-        <v>44883.92298581019</v>
+        <v>45069.847108483795</v>
       </c>
       <c r="G344" t="s">
         <v>13</v>
       </c>
       <c r="H344" t="s">
-        <v>1118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B345" t="s">
         <v>1119</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1120</v>
       </c>
       <c r="C345" t="s">
         <v>1120</v>
@@ -14413,33 +14422,36 @@
         <v>12</v>
       </c>
       <c r="E345" s="2">
-        <v>44944.74119959491</v>
+        <v>44883.92298581019</v>
       </c>
       <c r="F345" s="2">
-        <v>44944.74119959491</v>
+        <v>44883.92298581019</v>
       </c>
       <c r="G345" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H345" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B346" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C346" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D346" t="s">
         <v>12</v>
       </c>
       <c r="E346" s="2">
-        <v>44904.81136861111</v>
+        <v>44944.74119959491</v>
       </c>
       <c r="F346" s="2">
-        <v>44904.81136861111</v>
+        <v>44944.74119959491</v>
       </c>
       <c r="G346" t="s">
         <v>24</v>
@@ -14447,28 +14459,25 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B347" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C347" t="s">
         <v>1125</v>
       </c>
       <c r="D347" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E347" s="2">
-        <v>44859.92543686343</v>
+        <v>44904.81136861111</v>
       </c>
       <c r="F347" s="2">
-        <v>44859.92543686343</v>
+        <v>44904.81136861111</v>
       </c>
       <c r="G347" t="s">
-        <v>13</v>
-      </c>
-      <c r="H347" t="s">
-        <v>354</v>
+        <v>24</v>
       </c>
     </row>
     <row r="348">
@@ -14485,16 +14494,16 @@
         <v>71</v>
       </c>
       <c r="E348" s="2">
-        <v>44859.92994260417</v>
+        <v>44859.92543686343</v>
       </c>
       <c r="F348" s="2">
-        <v>44859.92994260417</v>
+        <v>44859.92543686343</v>
       </c>
       <c r="G348" t="s">
         <v>13</v>
       </c>
       <c r="H348" t="s">
-        <v>200</v>
+        <v>354</v>
       </c>
     </row>
     <row r="349">
@@ -14511,16 +14520,16 @@
         <v>71</v>
       </c>
       <c r="E349" s="2">
-        <v>44859.918753101854</v>
+        <v>44859.92994260417</v>
       </c>
       <c r="F349" s="2">
-        <v>44859.918753101854</v>
+        <v>44859.92994260417</v>
       </c>
       <c r="G349" t="s">
         <v>13</v>
       </c>
       <c r="H349" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
     </row>
     <row r="350">
@@ -14537,42 +14546,42 @@
         <v>71</v>
       </c>
       <c r="E350" s="2">
-        <v>44893.89760141204</v>
+        <v>44859.918753101854</v>
       </c>
       <c r="F350" s="2">
-        <v>44893.90946759259</v>
+        <v>44859.918753101854</v>
       </c>
       <c r="G350" t="s">
         <v>13</v>
       </c>
       <c r="H350" t="s">
-        <v>1135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B351" t="s">
         <v>1136</v>
       </c>
-      <c r="B351" t="s">
+      <c r="C351" t="s">
         <v>1137</v>
       </c>
-      <c r="C351" t="s">
+      <c r="D351" t="s">
+        <v>71</v>
+      </c>
+      <c r="E351" s="2">
+        <v>44893.89760141204</v>
+      </c>
+      <c r="F351" s="2">
+        <v>44893.90946759259</v>
+      </c>
+      <c r="G351" t="s">
+        <v>13</v>
+      </c>
+      <c r="H351" t="s">
         <v>1138</v>
-      </c>
-      <c r="D351" t="s">
-        <v>71</v>
-      </c>
-      <c r="E351" s="2">
-        <v>44859.938270451385</v>
-      </c>
-      <c r="F351" s="2">
-        <v>44859.938270451385</v>
-      </c>
-      <c r="G351" t="s">
-        <v>13</v>
-      </c>
-      <c r="H351" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="352">
@@ -14589,16 +14598,16 @@
         <v>71</v>
       </c>
       <c r="E352" s="2">
-        <v>44859.92046472222</v>
+        <v>44859.938270451385</v>
       </c>
       <c r="F352" s="2">
-        <v>44859.92046472222</v>
+        <v>44859.938270451385</v>
       </c>
       <c r="G352" t="s">
         <v>13</v>
       </c>
       <c r="H352" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="353">
@@ -14615,16 +14624,16 @@
         <v>71</v>
       </c>
       <c r="E353" s="2">
-        <v>44859.93623869213</v>
+        <v>44859.92046472222</v>
       </c>
       <c r="F353" s="2">
-        <v>44859.93623869213</v>
+        <v>44859.92046472222</v>
       </c>
       <c r="G353" t="s">
         <v>13</v>
       </c>
       <c r="H353" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
     </row>
     <row r="354">
@@ -14641,16 +14650,16 @@
         <v>71</v>
       </c>
       <c r="E354" s="2">
-        <v>44859.93296315972</v>
+        <v>44859.93623869213</v>
       </c>
       <c r="F354" s="2">
-        <v>44859.93296315972</v>
+        <v>44859.93623869213</v>
       </c>
       <c r="G354" t="s">
         <v>13</v>
       </c>
       <c r="H354" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
     </row>
     <row r="355">
@@ -14667,16 +14676,16 @@
         <v>71</v>
       </c>
       <c r="E355" s="2">
-        <v>44859.931598958334</v>
+        <v>44859.93296315972</v>
       </c>
       <c r="F355" s="2">
-        <v>44859.931598958334</v>
+        <v>44859.93296315972</v>
       </c>
       <c r="G355" t="s">
         <v>13</v>
       </c>
       <c r="H355" t="s">
-        <v>361</v>
+        <v>55</v>
       </c>
     </row>
     <row r="356">
@@ -14693,16 +14702,16 @@
         <v>71</v>
       </c>
       <c r="E356" s="2">
-        <v>44907.95076439815</v>
+        <v>44859.931598958334</v>
       </c>
       <c r="F356" s="2">
-        <v>44909.90028935185</v>
+        <v>44859.931598958334</v>
       </c>
       <c r="G356" t="s">
         <v>13</v>
       </c>
       <c r="H356" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
     </row>
     <row r="357">
@@ -14719,16 +14728,16 @@
         <v>71</v>
       </c>
       <c r="E357" s="2">
-        <v>44900.76435673611</v>
+        <v>44907.95076439815</v>
       </c>
       <c r="F357" s="2">
-        <v>44923.85045643519</v>
+        <v>44909.90028935185</v>
       </c>
       <c r="G357" t="s">
         <v>13</v>
       </c>
       <c r="H357" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="358">
@@ -14742,45 +14751,45 @@
         <v>1159</v>
       </c>
       <c r="D358" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E358" s="2">
-        <v>44846.74346460648</v>
+        <v>44900.76435673611</v>
       </c>
       <c r="F358" s="2">
-        <v>44846.74346460648</v>
+        <v>44923.85045643519</v>
       </c>
       <c r="G358" t="s">
         <v>13</v>
       </c>
       <c r="H358" t="s">
-        <v>1160</v>
+        <v>397</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B359" t="s">
         <v>1161</v>
       </c>
-      <c r="B359" t="s">
+      <c r="C359" t="s">
         <v>1162</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
+        <v>12</v>
+      </c>
+      <c r="E359" s="2">
+        <v>44846.74346460648</v>
+      </c>
+      <c r="F359" s="2">
+        <v>44846.74346460648</v>
+      </c>
+      <c r="G359" t="s">
+        <v>13</v>
+      </c>
+      <c r="H359" t="s">
         <v>1163</v>
-      </c>
-      <c r="D359" t="s">
-        <v>71</v>
-      </c>
-      <c r="E359" s="2">
-        <v>44859.91904712963</v>
-      </c>
-      <c r="F359" s="2">
-        <v>44859.91904712963</v>
-      </c>
-      <c r="G359" t="s">
-        <v>13</v>
-      </c>
-      <c r="H359" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="360">
@@ -14797,16 +14806,16 @@
         <v>71</v>
       </c>
       <c r="E360" s="2">
-        <v>44859.92316921296</v>
+        <v>44859.91904712963</v>
       </c>
       <c r="F360" s="2">
-        <v>44859.92316921296</v>
+        <v>44859.91904712963</v>
       </c>
       <c r="G360" t="s">
         <v>13</v>
       </c>
       <c r="H360" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
     </row>
     <row r="361">
@@ -14823,16 +14832,16 @@
         <v>71</v>
       </c>
       <c r="E361" s="2">
-        <v>44914.92242969907</v>
+        <v>44859.92316921296</v>
       </c>
       <c r="F361" s="2">
-        <v>44924.837222222224</v>
+        <v>44859.92316921296</v>
       </c>
       <c r="G361" t="s">
         <v>13</v>
       </c>
       <c r="H361" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="362">
@@ -14849,42 +14858,42 @@
         <v>71</v>
       </c>
       <c r="E362" s="2">
-        <v>44859.92688622685</v>
+        <v>44914.92242969907</v>
       </c>
       <c r="F362" s="2">
-        <v>44859.92688622685</v>
+        <v>44924.837222222224</v>
       </c>
       <c r="G362" t="s">
         <v>13</v>
       </c>
       <c r="H362" t="s">
-        <v>1173</v>
+        <v>122</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B363" t="s">
         <v>1174</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>1175</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
+        <v>71</v>
+      </c>
+      <c r="E363" s="2">
+        <v>44859.92688622685</v>
+      </c>
+      <c r="F363" s="2">
+        <v>44859.92688622685</v>
+      </c>
+      <c r="G363" t="s">
+        <v>13</v>
+      </c>
+      <c r="H363" t="s">
         <v>1176</v>
-      </c>
-      <c r="D363" t="s">
-        <v>71</v>
-      </c>
-      <c r="E363" s="2">
-        <v>44915.66114527777</v>
-      </c>
-      <c r="F363" s="2">
-        <v>44916.67622685185</v>
-      </c>
-      <c r="G363" t="s">
-        <v>13</v>
-      </c>
-      <c r="H363" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="364">
@@ -14901,16 +14910,16 @@
         <v>71</v>
       </c>
       <c r="E364" s="2">
-        <v>44859.93776508102</v>
+        <v>44915.66114527777</v>
       </c>
       <c r="F364" s="2">
-        <v>44859.93776508102</v>
+        <v>44916.67622685185</v>
       </c>
       <c r="G364" t="s">
         <v>13</v>
       </c>
       <c r="H364" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
     </row>
     <row r="365">
@@ -14924,16 +14933,19 @@
         <v>1182</v>
       </c>
       <c r="D365" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E365" s="2">
-        <v>44943.68538672454</v>
+        <v>44859.93776508102</v>
       </c>
       <c r="F365" s="2">
-        <v>44943.68538672454</v>
+        <v>44859.93776508102</v>
       </c>
       <c r="G365" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H365" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="366">
@@ -14950,16 +14962,13 @@
         <v>12</v>
       </c>
       <c r="E366" s="2">
-        <v>44895.63969591435</v>
+        <v>44943.68538672454</v>
       </c>
       <c r="F366" s="2">
-        <v>44923.85045643519</v>
+        <v>44943.68538672454</v>
       </c>
       <c r="G366" t="s">
-        <v>13</v>
-      </c>
-      <c r="H366" t="s">
-        <v>233</v>
+        <v>24</v>
       </c>
     </row>
     <row r="367">
@@ -14976,16 +14985,16 @@
         <v>12</v>
       </c>
       <c r="E367" s="2">
-        <v>44861.786326064816</v>
+        <v>44895.63969591435</v>
       </c>
       <c r="F367" s="2">
-        <v>44861.786326064816</v>
+        <v>44923.85045643519</v>
       </c>
       <c r="G367" t="s">
         <v>13</v>
       </c>
       <c r="H367" t="s">
-        <v>337</v>
+        <v>233</v>
       </c>
     </row>
     <row r="368">
@@ -15002,13 +15011,16 @@
         <v>12</v>
       </c>
       <c r="E368" s="2">
-        <v>44951.90950559027</v>
+        <v>44861.786326064816</v>
       </c>
       <c r="F368" s="2">
-        <v>44951.90950559027</v>
+        <v>44861.786326064816</v>
       </c>
       <c r="G368" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H368" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="369">
@@ -15022,19 +15034,16 @@
         <v>1194</v>
       </c>
       <c r="D369" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E369" s="2">
-        <v>44859.934752974536</v>
+        <v>44951.90950559027</v>
       </c>
       <c r="F369" s="2">
-        <v>44859.934752974536</v>
+        <v>44951.90950559027</v>
       </c>
       <c r="G369" t="s">
-        <v>13</v>
-      </c>
-      <c r="H369" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="370">
@@ -15051,16 +15060,16 @@
         <v>71</v>
       </c>
       <c r="E370" s="2">
-        <v>44859.91988108796</v>
+        <v>44859.934752974536</v>
       </c>
       <c r="F370" s="2">
-        <v>44859.91988108796</v>
+        <v>44859.934752974536</v>
       </c>
       <c r="G370" t="s">
         <v>13</v>
       </c>
       <c r="H370" t="s">
-        <v>563</v>
+        <v>170</v>
       </c>
     </row>
     <row r="371">
@@ -15077,16 +15086,16 @@
         <v>71</v>
       </c>
       <c r="E371" s="2">
-        <v>44859.92723695602</v>
+        <v>44859.91988108796</v>
       </c>
       <c r="F371" s="2">
-        <v>44859.92723695602</v>
+        <v>44859.91988108796</v>
       </c>
       <c r="G371" t="s">
         <v>13</v>
       </c>
       <c r="H371" t="s">
-        <v>154</v>
+        <v>563</v>
       </c>
     </row>
     <row r="372">
@@ -15103,16 +15112,16 @@
         <v>71</v>
       </c>
       <c r="E372" s="2">
-        <v>44859.9390862037</v>
+        <v>44859.92723695602</v>
       </c>
       <c r="F372" s="2">
-        <v>44859.9390862037</v>
+        <v>44859.92723695602</v>
       </c>
       <c r="G372" t="s">
         <v>13</v>
       </c>
       <c r="H372" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
     </row>
     <row r="373">
@@ -15129,16 +15138,16 @@
         <v>71</v>
       </c>
       <c r="E373" s="2">
-        <v>44914.92421922454</v>
+        <v>44859.9390862037</v>
       </c>
       <c r="F373" s="2">
-        <v>44915.763241875</v>
+        <v>44859.9390862037</v>
       </c>
       <c r="G373" t="s">
         <v>13</v>
       </c>
       <c r="H373" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="374">
@@ -15152,19 +15161,19 @@
         <v>1209</v>
       </c>
       <c r="D374" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E374" s="2">
-        <v>44886.75847326389</v>
+        <v>44914.92421922454</v>
       </c>
       <c r="F374" s="2">
-        <v>44886.75847326389</v>
+        <v>44915.763241875</v>
       </c>
       <c r="G374" t="s">
         <v>13</v>
       </c>
       <c r="H374" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
     </row>
     <row r="375">
@@ -15178,19 +15187,19 @@
         <v>1212</v>
       </c>
       <c r="D375" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E375" s="2">
-        <v>44859.924503483795</v>
+        <v>44886.75847326389</v>
       </c>
       <c r="F375" s="2">
-        <v>44859.924503483795</v>
+        <v>44886.75847326389</v>
       </c>
       <c r="G375" t="s">
         <v>13</v>
       </c>
       <c r="H375" t="s">
-        <v>918</v>
+        <v>189</v>
       </c>
     </row>
     <row r="376">
@@ -15207,42 +15216,42 @@
         <v>71</v>
       </c>
       <c r="E376" s="2">
-        <v>44914.97677635417</v>
+        <v>44859.924503483795</v>
       </c>
       <c r="F376" s="2">
-        <v>44915.9156712963</v>
+        <v>44859.924503483795</v>
       </c>
       <c r="G376" t="s">
         <v>13</v>
       </c>
       <c r="H376" t="s">
-        <v>1216</v>
+        <v>918</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B377" t="s">
         <v>1217</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
         <v>1218</v>
       </c>
-      <c r="C377" t="s">
+      <c r="D377" t="s">
+        <v>71</v>
+      </c>
+      <c r="E377" s="2">
+        <v>44914.97677635417</v>
+      </c>
+      <c r="F377" s="2">
+        <v>44915.9156712963</v>
+      </c>
+      <c r="G377" t="s">
+        <v>13</v>
+      </c>
+      <c r="H377" t="s">
         <v>1219</v>
-      </c>
-      <c r="D377" t="s">
-        <v>71</v>
-      </c>
-      <c r="E377" s="2">
-        <v>44859.92628143518</v>
-      </c>
-      <c r="F377" s="2">
-        <v>44859.92628143518</v>
-      </c>
-      <c r="G377" t="s">
-        <v>13</v>
-      </c>
-      <c r="H377" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="378">
@@ -15259,16 +15268,16 @@
         <v>71</v>
       </c>
       <c r="E378" s="2">
-        <v>44908.91111386574</v>
+        <v>44859.92628143518</v>
       </c>
       <c r="F378" s="2">
-        <v>44924.83068287037</v>
+        <v>44859.92628143518</v>
       </c>
       <c r="G378" t="s">
         <v>13</v>
       </c>
       <c r="H378" t="s">
-        <v>133</v>
+        <v>632</v>
       </c>
     </row>
     <row r="379">
@@ -15279,22 +15288,22 @@
         <v>1224</v>
       </c>
       <c r="C379" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D379" t="s">
         <v>71</v>
       </c>
       <c r="E379" s="2">
-        <v>44910.95432046296</v>
+        <v>44908.91111386574</v>
       </c>
       <c r="F379" s="2">
-        <v>44910.963742962966</v>
+        <v>44924.83068287037</v>
       </c>
       <c r="G379" t="s">
         <v>13</v>
       </c>
       <c r="H379" t="s">
-        <v>1225</v>
+        <v>133</v>
       </c>
     </row>
     <row r="380">
@@ -15305,22 +15314,22 @@
         <v>1227</v>
       </c>
       <c r="C380" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D380" t="s">
+        <v>71</v>
+      </c>
+      <c r="E380" s="2">
+        <v>44910.95432046296</v>
+      </c>
+      <c r="F380" s="2">
+        <v>44910.963742962966</v>
+      </c>
+      <c r="G380" t="s">
+        <v>13</v>
+      </c>
+      <c r="H380" t="s">
         <v>1228</v>
-      </c>
-      <c r="D380" t="s">
-        <v>12</v>
-      </c>
-      <c r="E380" s="2">
-        <v>44883.9190325463</v>
-      </c>
-      <c r="F380" s="2">
-        <v>44883.9190325463</v>
-      </c>
-      <c r="G380" t="s">
-        <v>13</v>
-      </c>
-      <c r="H380" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="381">
@@ -15334,45 +15343,45 @@
         <v>1231</v>
       </c>
       <c r="D381" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E381" s="2">
-        <v>44859.938571493054</v>
+        <v>44883.9190325463</v>
       </c>
       <c r="F381" s="2">
-        <v>44859.938571493054</v>
+        <v>44883.9190325463</v>
       </c>
       <c r="G381" t="s">
         <v>13</v>
       </c>
       <c r="H381" t="s">
-        <v>1232</v>
+        <v>365</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B382" t="s">
         <v>1233</v>
       </c>
-      <c r="B382" t="s">
+      <c r="C382" t="s">
         <v>1234</v>
       </c>
-      <c r="C382" t="s">
+      <c r="D382" t="s">
+        <v>71</v>
+      </c>
+      <c r="E382" s="2">
+        <v>44859.938571493054</v>
+      </c>
+      <c r="F382" s="2">
+        <v>44859.938571493054</v>
+      </c>
+      <c r="G382" t="s">
+        <v>13</v>
+      </c>
+      <c r="H382" t="s">
         <v>1235</v>
-      </c>
-      <c r="D382" t="s">
-        <v>71</v>
-      </c>
-      <c r="E382" s="2">
-        <v>44859.92153065972</v>
-      </c>
-      <c r="F382" s="2">
-        <v>44859.92153065972</v>
-      </c>
-      <c r="G382" t="s">
-        <v>13</v>
-      </c>
-      <c r="H382" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="383">
@@ -15389,16 +15398,16 @@
         <v>71</v>
       </c>
       <c r="E383" s="2">
-        <v>44859.93895633102</v>
+        <v>44859.92153065972</v>
       </c>
       <c r="F383" s="2">
-        <v>44859.93895633102</v>
+        <v>44859.92153065972</v>
       </c>
       <c r="G383" t="s">
         <v>13</v>
       </c>
       <c r="H383" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="384">
@@ -15415,16 +15424,16 @@
         <v>71</v>
       </c>
       <c r="E384" s="2">
-        <v>44915.658375555555</v>
+        <v>44859.93895633102</v>
       </c>
       <c r="F384" s="2">
-        <v>44916.67722222222</v>
+        <v>44859.93895633102</v>
       </c>
       <c r="G384" t="s">
         <v>13</v>
       </c>
       <c r="H384" t="s">
-        <v>333</v>
+        <v>106</v>
       </c>
     </row>
     <row r="385">
@@ -15441,44 +15450,47 @@
         <v>71</v>
       </c>
       <c r="E385" s="2">
-        <v>44859.935241597224</v>
+        <v>44915.658375555555</v>
       </c>
       <c r="F385" s="2">
-        <v>44859.935241597224</v>
+        <v>44916.67722222222</v>
       </c>
       <c r="G385" t="s">
         <v>13</v>
       </c>
       <c r="H385" t="s">
-        <v>170</v>
+        <v>333</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>643</v>
+        <v>1245</v>
       </c>
       <c r="B386" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C386" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D386" t="s">
         <v>71</v>
       </c>
       <c r="E386" s="2">
-        <v>44859.88016480324</v>
+        <v>44859.935241597224</v>
       </c>
       <c r="F386" s="2">
-        <v>44985.741168981476</v>
+        <v>44859.935241597224</v>
       </c>
       <c r="G386" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H386" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>1247</v>
+        <v>643</v>
       </c>
       <c r="B387" t="s">
         <v>1248</v>
@@ -15490,16 +15502,13 @@
         <v>71</v>
       </c>
       <c r="E387" s="2">
-        <v>44859.92466405092</v>
+        <v>44859.88016480324</v>
       </c>
       <c r="F387" s="2">
-        <v>44859.92466405092</v>
+        <v>44985.741168981476</v>
       </c>
       <c r="G387" t="s">
-        <v>13</v>
-      </c>
-      <c r="H387" t="s">
-        <v>424</v>
+        <v>24</v>
       </c>
     </row>
     <row r="388">
@@ -15513,19 +15522,19 @@
         <v>1252</v>
       </c>
       <c r="D388" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E388" s="2">
-        <v>44883.91685811343</v>
+        <v>44859.92466405092</v>
       </c>
       <c r="F388" s="2">
-        <v>44883.91685811343</v>
+        <v>44859.92466405092</v>
       </c>
       <c r="G388" t="s">
         <v>13</v>
       </c>
       <c r="H388" t="s">
-        <v>204</v>
+        <v>424</v>
       </c>
     </row>
     <row r="389">
@@ -15539,19 +15548,19 @@
         <v>1255</v>
       </c>
       <c r="D389" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E389" s="2">
-        <v>44859.9230949537</v>
+        <v>44883.91685811343</v>
       </c>
       <c r="F389" s="2">
-        <v>44859.9230949537</v>
+        <v>44883.91685811343</v>
       </c>
       <c r="G389" t="s">
         <v>13</v>
       </c>
       <c r="H389" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
     </row>
     <row r="390">
@@ -15568,16 +15577,16 @@
         <v>71</v>
       </c>
       <c r="E390" s="2">
-        <v>44859.92695891204</v>
+        <v>44859.9230949537</v>
       </c>
       <c r="F390" s="2">
-        <v>44859.92695891204</v>
+        <v>44859.9230949537</v>
       </c>
       <c r="G390" t="s">
         <v>13</v>
       </c>
       <c r="H390" t="s">
-        <v>1173</v>
+        <v>95</v>
       </c>
     </row>
     <row r="391">
@@ -15594,44 +15603,47 @@
         <v>71</v>
       </c>
       <c r="E391" s="2">
-        <v>44907.951155636576</v>
+        <v>44859.92695891204</v>
       </c>
       <c r="F391" s="2">
-        <v>44909.90329861111</v>
+        <v>44859.92695891204</v>
       </c>
       <c r="G391" t="s">
         <v>13</v>
       </c>
       <c r="H391" t="s">
-        <v>401</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>903</v>
+        <v>1262</v>
       </c>
       <c r="B392" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C392" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D392" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E392" s="2">
-        <v>44909.68135753472</v>
+        <v>44907.951155636576</v>
       </c>
       <c r="F392" s="2">
-        <v>44909.68135753472</v>
+        <v>44909.90329861111</v>
       </c>
       <c r="G392" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H392" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>1264</v>
+        <v>903</v>
       </c>
       <c r="B393" t="s">
         <v>1265</v>
@@ -15640,19 +15652,16 @@
         <v>1266</v>
       </c>
       <c r="D393" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E393" s="2">
-        <v>44858.93674365741</v>
+        <v>44909.68135753472</v>
       </c>
       <c r="F393" s="2">
-        <v>44858.93674365741</v>
+        <v>44909.68135753472</v>
       </c>
       <c r="G393" t="s">
-        <v>13</v>
-      </c>
-      <c r="H393" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
     </row>
     <row r="394">
@@ -15669,16 +15678,16 @@
         <v>71</v>
       </c>
       <c r="E394" s="2">
-        <v>44859.932555300926</v>
+        <v>44858.93674365741</v>
       </c>
       <c r="F394" s="2">
-        <v>44859.932555300926</v>
+        <v>44858.93674365741</v>
       </c>
       <c r="G394" t="s">
         <v>13</v>
       </c>
       <c r="H394" t="s">
-        <v>744</v>
+        <v>189</v>
       </c>
     </row>
     <row r="395">
@@ -15692,24 +15701,24 @@
         <v>1272</v>
       </c>
       <c r="D395" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E395" s="2">
-        <v>44930.685245416666</v>
+        <v>44859.932555300926</v>
       </c>
       <c r="F395" s="2">
-        <v>44930.76358796297</v>
+        <v>44859.932555300926</v>
       </c>
       <c r="G395" t="s">
         <v>13</v>
       </c>
       <c r="H395" t="s">
-        <v>1273</v>
+        <v>744</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>610</v>
+        <v>1273</v>
       </c>
       <c r="B396" t="s">
         <v>1274</v>
@@ -15718,24 +15727,24 @@
         <v>1275</v>
       </c>
       <c r="D396" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E396" s="2">
-        <v>44914.91891871528</v>
+        <v>44930.685245416666</v>
       </c>
       <c r="F396" s="2">
-        <v>44915.936319444445</v>
+        <v>44930.76358796297</v>
       </c>
       <c r="G396" t="s">
         <v>13</v>
       </c>
       <c r="H396" t="s">
-        <v>122</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>1276</v>
+        <v>610</v>
       </c>
       <c r="B397" t="s">
         <v>1277</v>
@@ -15744,16 +15753,19 @@
         <v>1278</v>
       </c>
       <c r="D397" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E397" s="2">
-        <v>44727.70488723379</v>
+        <v>44914.91891871528</v>
       </c>
       <c r="F397" s="2">
-        <v>44727.73903935185</v>
+        <v>44915.936319444445</v>
       </c>
       <c r="G397" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H397" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="398">
@@ -15770,10 +15782,10 @@
         <v>12</v>
       </c>
       <c r="E398" s="2">
-        <v>44727.93403599537</v>
+        <v>44727.70488723379</v>
       </c>
       <c r="F398" s="2">
-        <v>44727.93403599537</v>
+        <v>44727.73903935185</v>
       </c>
       <c r="G398" t="s">
         <v>24</v>
@@ -15781,30 +15793,30 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>688</v>
+        <v>1282</v>
       </c>
       <c r="B399" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C399" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D399" t="s">
         <v>12</v>
       </c>
       <c r="E399" s="2">
-        <v>44693.720985127315</v>
+        <v>44727.93403599537</v>
       </c>
       <c r="F399" s="2">
-        <v>44858.72875238426</v>
+        <v>44727.93403599537</v>
       </c>
       <c r="G399" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>1284</v>
+        <v>688</v>
       </c>
       <c r="B400" t="s">
         <v>1285</v>
@@ -15816,13 +15828,13 @@
         <v>12</v>
       </c>
       <c r="E400" s="2">
-        <v>44693.729020046296</v>
+        <v>44693.720985127315</v>
       </c>
       <c r="F400" s="2">
-        <v>44693.729020046296</v>
+        <v>44858.72875238426</v>
       </c>
       <c r="G400" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="401">
@@ -15839,10 +15851,10 @@
         <v>12</v>
       </c>
       <c r="E401" s="2">
-        <v>44697.63881583333</v>
+        <v>44693.729020046296</v>
       </c>
       <c r="F401" s="2">
-        <v>44697.63881583333</v>
+        <v>44693.729020046296</v>
       </c>
       <c r="G401" t="s">
         <v>24</v>
@@ -15862,13 +15874,13 @@
         <v>12</v>
       </c>
       <c r="E402" s="2">
-        <v>44677.83268288194</v>
+        <v>44697.63881583333</v>
       </c>
       <c r="F402" s="2">
-        <v>44677.83268288194</v>
+        <v>44697.63881583333</v>
       </c>
       <c r="G402" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
     </row>
     <row r="403">
@@ -15885,13 +15897,13 @@
         <v>12</v>
       </c>
       <c r="E403" s="2">
-        <v>44695.03282231481</v>
+        <v>44677.83268288194</v>
       </c>
       <c r="F403" s="2">
-        <v>44695.03282231481</v>
+        <v>44677.83268288194</v>
       </c>
       <c r="G403" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
     </row>
     <row r="404">
@@ -15908,19 +15920,13 @@
         <v>12</v>
       </c>
       <c r="E404" s="2">
-        <v>45069.88908883102</v>
+        <v>44695.03282231481</v>
       </c>
       <c r="F404" s="2">
-        <v>45069.88908883102</v>
+        <v>44695.03282231481</v>
       </c>
       <c r="G404" t="s">
-        <v>13</v>
-      </c>
-      <c r="H404" t="s">
-        <v>14</v>
-      </c>
-      <c r="I404" t="s">
-        <v>816</v>
+        <v>43</v>
       </c>
     </row>
     <row r="405">
@@ -15937,13 +15943,19 @@
         <v>12</v>
       </c>
       <c r="E405" s="2">
-        <v>44698.666048784726</v>
+        <v>45069.88908883102</v>
       </c>
       <c r="F405" s="2">
-        <v>44698.666048784726</v>
+        <v>45069.88908883102</v>
       </c>
       <c r="G405" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H405" t="s">
+        <v>14</v>
+      </c>
+      <c r="I405" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="406">
@@ -15960,10 +15972,10 @@
         <v>12</v>
       </c>
       <c r="E406" s="2">
-        <v>44712.879196574075</v>
+        <v>44698.666048784726</v>
       </c>
       <c r="F406" s="2">
-        <v>44712.879196574075</v>
+        <v>44698.666048784726</v>
       </c>
       <c r="G406" t="s">
         <v>24</v>
@@ -15983,10 +15995,10 @@
         <v>12</v>
       </c>
       <c r="E407" s="2">
-        <v>44726.11147872685</v>
+        <v>44712.879196574075</v>
       </c>
       <c r="F407" s="2">
-        <v>44741.810335648144</v>
+        <v>44712.879196574075</v>
       </c>
       <c r="G407" t="s">
         <v>24</v>
@@ -16003,19 +16015,16 @@
         <v>1310</v>
       </c>
       <c r="D408" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E408" s="2">
-        <v>44859.92129920139</v>
+        <v>44726.11147872685</v>
       </c>
       <c r="F408" s="2">
-        <v>44859.92129920139</v>
+        <v>44741.810335648144</v>
       </c>
       <c r="G408" t="s">
-        <v>13</v>
-      </c>
-      <c r="H408" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
     </row>
     <row r="409">
@@ -16032,16 +16041,16 @@
         <v>71</v>
       </c>
       <c r="E409" s="2">
-        <v>44859.93737677083</v>
+        <v>44859.92129920139</v>
       </c>
       <c r="F409" s="2">
-        <v>44859.93737677083</v>
+        <v>44859.92129920139</v>
       </c>
       <c r="G409" t="s">
         <v>13</v>
       </c>
       <c r="H409" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
     </row>
     <row r="410">
@@ -16058,16 +16067,16 @@
         <v>71</v>
       </c>
       <c r="E410" s="2">
-        <v>44859.93362697917</v>
+        <v>44859.93737677083</v>
       </c>
       <c r="F410" s="2">
-        <v>44859.93362697917</v>
+        <v>44859.93737677083</v>
       </c>
       <c r="G410" t="s">
         <v>13</v>
       </c>
       <c r="H410" t="s">
-        <v>372</v>
+        <v>246</v>
       </c>
     </row>
     <row r="411">
@@ -16084,16 +16093,16 @@
         <v>71</v>
       </c>
       <c r="E411" s="2">
-        <v>44915.95137491898</v>
+        <v>44859.93362697917</v>
       </c>
       <c r="F411" s="2">
-        <v>44916.64606481481</v>
+        <v>44859.93362697917</v>
       </c>
       <c r="G411" t="s">
         <v>13</v>
       </c>
       <c r="H411" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
     </row>
     <row r="412">
@@ -16110,16 +16119,16 @@
         <v>71</v>
       </c>
       <c r="E412" s="2">
-        <v>44859.93657895833</v>
+        <v>44915.95137491898</v>
       </c>
       <c r="F412" s="2">
-        <v>44859.93657895833</v>
+        <v>44916.64606481481</v>
       </c>
       <c r="G412" t="s">
         <v>13</v>
       </c>
       <c r="H412" t="s">
-        <v>618</v>
+        <v>122</v>
       </c>
     </row>
     <row r="413">
@@ -16136,47 +16145,47 @@
         <v>71</v>
       </c>
       <c r="E413" s="2">
-        <v>44859.93461056713</v>
+        <v>44859.93657895833</v>
       </c>
       <c r="F413" s="2">
-        <v>44859.93461056713</v>
+        <v>44859.93657895833</v>
       </c>
       <c r="G413" t="s">
         <v>13</v>
       </c>
       <c r="H413" t="s">
-        <v>170</v>
+        <v>618</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>1139</v>
+        <v>1326</v>
       </c>
       <c r="B414" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C414" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D414" t="s">
         <v>71</v>
       </c>
       <c r="E414" s="2">
-        <v>44914.89506299769</v>
+        <v>44859.93461056713</v>
       </c>
       <c r="F414" s="2">
-        <v>44915.931342592594</v>
+        <v>44859.93461056713</v>
       </c>
       <c r="G414" t="s">
         <v>13</v>
       </c>
       <c r="H414" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>1328</v>
+        <v>1142</v>
       </c>
       <c r="B415" t="s">
         <v>1329</v>
@@ -16188,42 +16197,42 @@
         <v>71</v>
       </c>
       <c r="E415" s="2">
-        <v>44859.93810503472</v>
+        <v>44914.89506299769</v>
       </c>
       <c r="F415" s="2">
-        <v>44859.93810503472</v>
+        <v>44915.931342592594</v>
       </c>
       <c r="G415" t="s">
         <v>13</v>
       </c>
       <c r="H415" t="s">
-        <v>1331</v>
+        <v>122</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B416" t="s">
         <v>1332</v>
       </c>
-      <c r="B416" t="s">
+      <c r="C416" t="s">
         <v>1333</v>
       </c>
-      <c r="C416" t="s">
+      <c r="D416" t="s">
+        <v>71</v>
+      </c>
+      <c r="E416" s="2">
+        <v>44859.93810503472</v>
+      </c>
+      <c r="F416" s="2">
+        <v>44859.93810503472</v>
+      </c>
+      <c r="G416" t="s">
+        <v>13</v>
+      </c>
+      <c r="H416" t="s">
         <v>1334</v>
-      </c>
-      <c r="D416" t="s">
-        <v>71</v>
-      </c>
-      <c r="E416" s="2">
-        <v>44916.79720446759</v>
-      </c>
-      <c r="F416" s="2">
-        <v>44916.80120070602</v>
-      </c>
-      <c r="G416" t="s">
-        <v>13</v>
-      </c>
-      <c r="H416" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="417">
@@ -16231,30 +16240,30 @@
         <v>1335</v>
       </c>
       <c r="B417" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C417" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D417" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E417" s="2">
-        <v>44861.78872564815</v>
+        <v>44916.79720446759</v>
       </c>
       <c r="F417" s="2">
-        <v>44861.78872564815</v>
+        <v>44916.80120070602</v>
       </c>
       <c r="G417" t="s">
         <v>13</v>
       </c>
       <c r="H417" t="s">
-        <v>365</v>
+        <v>868</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B418" t="s">
         <v>1338</v>
@@ -16266,39 +16275,39 @@
         <v>12</v>
       </c>
       <c r="E418" s="2">
-        <v>44874.711957719905</v>
+        <v>44861.78872564815</v>
       </c>
       <c r="F418" s="2">
-        <v>44874.711957719905</v>
+        <v>44861.78872564815</v>
       </c>
       <c r="G418" t="s">
-        <v>1340</v>
+        <v>13</v>
+      </c>
+      <c r="H418" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B419" t="s">
         <v>1341</v>
       </c>
-      <c r="B419" t="s">
+      <c r="C419" t="s">
         <v>1342</v>
       </c>
-      <c r="C419" t="s">
+      <c r="D419" t="s">
+        <v>12</v>
+      </c>
+      <c r="E419" s="2">
+        <v>44874.711957719905</v>
+      </c>
+      <c r="F419" s="2">
+        <v>44874.711957719905</v>
+      </c>
+      <c r="G419" t="s">
         <v>1343</v>
-      </c>
-      <c r="D419" t="s">
-        <v>71</v>
-      </c>
-      <c r="E419" s="2">
-        <v>44859.934688298614</v>
-      </c>
-      <c r="F419" s="2">
-        <v>44859.934688298614</v>
-      </c>
-      <c r="G419" t="s">
-        <v>13</v>
-      </c>
-      <c r="H419" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="420">
@@ -16312,16 +16321,19 @@
         <v>1346</v>
       </c>
       <c r="D420" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E420" s="2">
-        <v>44958.71230972222</v>
+        <v>44859.934688298614</v>
       </c>
       <c r="F420" s="2">
-        <v>44958.71230972222</v>
+        <v>44859.934688298614</v>
       </c>
       <c r="G420" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H420" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="421">
@@ -16335,19 +16347,16 @@
         <v>1349</v>
       </c>
       <c r="D421" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E421" s="2">
-        <v>44922.682050682866</v>
+        <v>44958.71230972222</v>
       </c>
       <c r="F421" s="2">
-        <v>44922.69420625</v>
+        <v>44958.71230972222</v>
       </c>
       <c r="G421" t="s">
-        <v>13</v>
-      </c>
-      <c r="H421" t="s">
-        <v>868</v>
+        <v>24</v>
       </c>
     </row>
     <row r="422">
@@ -16364,16 +16373,16 @@
         <v>71</v>
       </c>
       <c r="E422" s="2">
-        <v>44858.93673434028</v>
+        <v>44922.682050682866</v>
       </c>
       <c r="F422" s="2">
-        <v>44858.93673434028</v>
+        <v>44922.69420625</v>
       </c>
       <c r="G422" t="s">
         <v>13</v>
       </c>
       <c r="H422" t="s">
-        <v>189</v>
+        <v>868</v>
       </c>
     </row>
     <row r="423">
@@ -16390,16 +16399,16 @@
         <v>71</v>
       </c>
       <c r="E423" s="2">
-        <v>44859.92500699074</v>
+        <v>44858.93673434028</v>
       </c>
       <c r="F423" s="2">
-        <v>44859.92500699074</v>
+        <v>44858.93673434028</v>
       </c>
       <c r="G423" t="s">
         <v>13</v>
       </c>
       <c r="H423" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="424">
@@ -16413,19 +16422,19 @@
         <v>1358</v>
       </c>
       <c r="D424" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E424" s="2">
-        <v>44887.84999274305</v>
+        <v>44859.92500699074</v>
       </c>
       <c r="F424" s="2">
-        <v>44887.84999274305</v>
+        <v>44859.92500699074</v>
       </c>
       <c r="G424" t="s">
         <v>13</v>
       </c>
       <c r="H424" t="s">
-        <v>1004</v>
+        <v>99</v>
       </c>
     </row>
     <row r="425">
@@ -16433,25 +16442,25 @@
         <v>1359</v>
       </c>
       <c r="B425" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C425" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D425" t="s">
         <v>12</v>
       </c>
       <c r="E425" s="2">
-        <v>44861.79093662037</v>
+        <v>44887.84999274305</v>
       </c>
       <c r="F425" s="2">
-        <v>44861.79093662037</v>
+        <v>44887.84999274305</v>
       </c>
       <c r="G425" t="s">
         <v>13</v>
       </c>
       <c r="H425" t="s">
-        <v>1361</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="426">
@@ -16459,25 +16468,25 @@
         <v>1362</v>
       </c>
       <c r="B426" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C426" t="s">
         <v>1363</v>
       </c>
-      <c r="C426" t="s">
+      <c r="D426" t="s">
+        <v>12</v>
+      </c>
+      <c r="E426" s="2">
+        <v>44861.79093662037</v>
+      </c>
+      <c r="F426" s="2">
+        <v>44861.79093662037</v>
+      </c>
+      <c r="G426" t="s">
+        <v>13</v>
+      </c>
+      <c r="H426" t="s">
         <v>1364</v>
-      </c>
-      <c r="D426" t="s">
-        <v>71</v>
-      </c>
-      <c r="E426" s="2">
-        <v>44859.93303825232</v>
-      </c>
-      <c r="F426" s="2">
-        <v>44859.93303825232</v>
-      </c>
-      <c r="G426" t="s">
-        <v>13</v>
-      </c>
-      <c r="H426" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="427">
@@ -16494,16 +16503,16 @@
         <v>71</v>
       </c>
       <c r="E427" s="2">
-        <v>44859.92592146991</v>
+        <v>44859.93303825232</v>
       </c>
       <c r="F427" s="2">
-        <v>44859.92592146991</v>
+        <v>44859.93303825232</v>
       </c>
       <c r="G427" t="s">
         <v>13</v>
       </c>
       <c r="H427" t="s">
-        <v>632</v>
+        <v>95</v>
       </c>
     </row>
     <row r="428">
@@ -16520,16 +16529,16 @@
         <v>71</v>
       </c>
       <c r="E428" s="2">
-        <v>44859.92380875</v>
+        <v>44859.92592146991</v>
       </c>
       <c r="F428" s="2">
-        <v>44859.92380875</v>
+        <v>44859.92592146991</v>
       </c>
       <c r="G428" t="s">
         <v>13</v>
       </c>
       <c r="H428" t="s">
-        <v>337</v>
+        <v>632</v>
       </c>
     </row>
     <row r="429">
@@ -16546,16 +16555,16 @@
         <v>71</v>
       </c>
       <c r="E429" s="2">
-        <v>44907.94952354167</v>
+        <v>44859.92380875</v>
       </c>
       <c r="F429" s="2">
-        <v>44909.89903935185</v>
+        <v>44859.92380875</v>
       </c>
       <c r="G429" t="s">
         <v>13</v>
       </c>
       <c r="H429" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
     </row>
     <row r="430">
@@ -16572,16 +16581,16 @@
         <v>71</v>
       </c>
       <c r="E430" s="2">
-        <v>44859.92104774306</v>
+        <v>44907.94952354167</v>
       </c>
       <c r="F430" s="2">
-        <v>44859.92104774306</v>
+        <v>44909.89903935185</v>
       </c>
       <c r="G430" t="s">
         <v>13</v>
       </c>
       <c r="H430" t="s">
-        <v>122</v>
+        <v>401</v>
       </c>
     </row>
     <row r="431">
@@ -16598,16 +16607,16 @@
         <v>71</v>
       </c>
       <c r="E431" s="2">
-        <v>44915.660559282405</v>
+        <v>44859.92104774306</v>
       </c>
       <c r="F431" s="2">
-        <v>44916.66913194444</v>
+        <v>44859.92104774306</v>
       </c>
       <c r="G431" t="s">
         <v>13</v>
       </c>
       <c r="H431" t="s">
-        <v>333</v>
+        <v>122</v>
       </c>
     </row>
     <row r="432">
@@ -16624,16 +16633,16 @@
         <v>71</v>
       </c>
       <c r="E432" s="2">
-        <v>44914.89187011574</v>
+        <v>44915.660559282405</v>
       </c>
       <c r="F432" s="2">
-        <v>44915.9500925926</v>
+        <v>44916.66913194444</v>
       </c>
       <c r="G432" t="s">
         <v>13</v>
       </c>
       <c r="H432" t="s">
-        <v>122</v>
+        <v>333</v>
       </c>
     </row>
     <row r="433">
@@ -16650,16 +16659,16 @@
         <v>71</v>
       </c>
       <c r="E433" s="2">
-        <v>44859.93558913194</v>
+        <v>44914.89187011574</v>
       </c>
       <c r="F433" s="2">
-        <v>44859.93558913194</v>
+        <v>44915.9500925926</v>
       </c>
       <c r="G433" t="s">
         <v>13</v>
       </c>
       <c r="H433" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
     </row>
     <row r="434">
@@ -16676,16 +16685,16 @@
         <v>71</v>
       </c>
       <c r="E434" s="2">
-        <v>44859.91965565972</v>
+        <v>44859.93558913194</v>
       </c>
       <c r="F434" s="2">
-        <v>44859.91965565972</v>
+        <v>44859.93558913194</v>
       </c>
       <c r="G434" t="s">
         <v>13</v>
       </c>
       <c r="H434" t="s">
-        <v>563</v>
+        <v>170</v>
       </c>
     </row>
     <row r="435">
@@ -16699,19 +16708,19 @@
         <v>1391</v>
       </c>
       <c r="D435" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E435" s="2">
-        <v>44886.7577987963</v>
+        <v>44859.91965565972</v>
       </c>
       <c r="F435" s="2">
-        <v>44886.7577987963</v>
+        <v>44859.91965565972</v>
       </c>
       <c r="G435" t="s">
         <v>13</v>
       </c>
       <c r="H435" t="s">
-        <v>189</v>
+        <v>563</v>
       </c>
     </row>
     <row r="436">
@@ -16725,19 +16734,19 @@
         <v>1394</v>
       </c>
       <c r="D436" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E436" s="2">
-        <v>44859.93585070602</v>
+        <v>44886.7577987963</v>
       </c>
       <c r="F436" s="2">
-        <v>44893.931597222225</v>
+        <v>44886.7577987963</v>
       </c>
       <c r="G436" t="s">
         <v>13</v>
       </c>
       <c r="H436" t="s">
-        <v>673</v>
+        <v>189</v>
       </c>
     </row>
     <row r="437">
@@ -16754,16 +16763,16 @@
         <v>71</v>
       </c>
       <c r="E437" s="2">
-        <v>44859.91980737269</v>
+        <v>44859.93585070602</v>
       </c>
       <c r="F437" s="2">
-        <v>44859.91980737269</v>
+        <v>44893.931597222225</v>
       </c>
       <c r="G437" t="s">
         <v>13</v>
       </c>
       <c r="H437" t="s">
-        <v>563</v>
+        <v>673</v>
       </c>
     </row>
     <row r="438">
@@ -16780,16 +16789,16 @@
         <v>71</v>
       </c>
       <c r="E438" s="2">
-        <v>44916.79576153935</v>
+        <v>44859.91980737269</v>
       </c>
       <c r="F438" s="2">
-        <v>44922.6493287037</v>
+        <v>44859.91980737269</v>
       </c>
       <c r="G438" t="s">
         <v>13</v>
       </c>
       <c r="H438" t="s">
-        <v>431</v>
+        <v>563</v>
       </c>
     </row>
     <row r="439">
@@ -16806,16 +16815,16 @@
         <v>71</v>
       </c>
       <c r="E439" s="2">
-        <v>44859.92443008102</v>
+        <v>44916.79576153935</v>
       </c>
       <c r="F439" s="2">
-        <v>44859.92443008102</v>
+        <v>44922.6493287037</v>
       </c>
       <c r="G439" t="s">
         <v>13</v>
       </c>
       <c r="H439" t="s">
-        <v>918</v>
+        <v>431</v>
       </c>
     </row>
     <row r="440">
@@ -16832,42 +16841,42 @@
         <v>71</v>
       </c>
       <c r="E440" s="2">
-        <v>44859.9387575463</v>
+        <v>44859.92443008102</v>
       </c>
       <c r="F440" s="2">
-        <v>44859.9387575463</v>
+        <v>44859.92443008102</v>
       </c>
       <c r="G440" t="s">
         <v>13</v>
       </c>
       <c r="H440" t="s">
-        <v>1407</v>
+        <v>918</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B441" t="s">
         <v>1408</v>
       </c>
-      <c r="B441" t="s">
+      <c r="C441" t="s">
         <v>1409</v>
       </c>
-      <c r="C441" t="s">
+      <c r="D441" t="s">
+        <v>71</v>
+      </c>
+      <c r="E441" s="2">
+        <v>44859.9387575463</v>
+      </c>
+      <c r="F441" s="2">
+        <v>44859.9387575463</v>
+      </c>
+      <c r="G441" t="s">
+        <v>13</v>
+      </c>
+      <c r="H441" t="s">
         <v>1410</v>
-      </c>
-      <c r="D441" t="s">
-        <v>71</v>
-      </c>
-      <c r="E441" s="2">
-        <v>44914.92371204861</v>
-      </c>
-      <c r="F441" s="2">
-        <v>44915.763118159724</v>
-      </c>
-      <c r="G441" t="s">
-        <v>13</v>
-      </c>
-      <c r="H441" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="442">
@@ -16881,16 +16890,19 @@
         <v>1413</v>
       </c>
       <c r="D442" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E442" s="2">
-        <v>44876.77558958333</v>
+        <v>44914.92371204861</v>
       </c>
       <c r="F442" s="2">
-        <v>44876.77558958333</v>
+        <v>44915.763118159724</v>
       </c>
       <c r="G442" t="s">
-        <v>166</v>
+        <v>13</v>
+      </c>
+      <c r="H442" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="443">
@@ -16907,16 +16919,13 @@
         <v>12</v>
       </c>
       <c r="E443" s="2">
-        <v>44883.71760039352</v>
+        <v>44876.77558958333</v>
       </c>
       <c r="F443" s="2">
-        <v>44893.84550925926</v>
+        <v>44876.77558958333</v>
       </c>
       <c r="G443" t="s">
-        <v>13</v>
-      </c>
-      <c r="H443" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
     </row>
     <row r="444">
@@ -16930,45 +16939,45 @@
         <v>1419</v>
       </c>
       <c r="D444" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E444" s="2">
-        <v>44859.931398796296</v>
+        <v>44883.71760039352</v>
       </c>
       <c r="F444" s="2">
-        <v>44859.931398796296</v>
+        <v>44893.84550925926</v>
       </c>
       <c r="G444" t="s">
         <v>13</v>
       </c>
       <c r="H444" t="s">
-        <v>1420</v>
+        <v>333</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B445" t="s">
         <v>1421</v>
       </c>
-      <c r="B445" t="s">
+      <c r="C445" t="s">
         <v>1422</v>
       </c>
-      <c r="C445" t="s">
+      <c r="D445" t="s">
+        <v>71</v>
+      </c>
+      <c r="E445" s="2">
+        <v>44859.931398796296</v>
+      </c>
+      <c r="F445" s="2">
+        <v>44859.931398796296</v>
+      </c>
+      <c r="G445" t="s">
+        <v>13</v>
+      </c>
+      <c r="H445" t="s">
         <v>1423</v>
-      </c>
-      <c r="D445" t="s">
-        <v>12</v>
-      </c>
-      <c r="E445" s="2">
-        <v>44888.68689385417</v>
-      </c>
-      <c r="F445" s="2">
-        <v>44893.71452546296</v>
-      </c>
-      <c r="G445" t="s">
-        <v>13</v>
-      </c>
-      <c r="H445" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="446">
@@ -16982,71 +16991,71 @@
         <v>1426</v>
       </c>
       <c r="D446" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E446" s="2">
-        <v>44859.92421810185</v>
+        <v>44888.68689385417</v>
       </c>
       <c r="F446" s="2">
-        <v>44859.92421810185</v>
+        <v>44893.71452546296</v>
       </c>
       <c r="G446" t="s">
         <v>13</v>
       </c>
       <c r="H446" t="s">
-        <v>1427</v>
+        <v>147</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B447" t="s">
         <v>1428</v>
       </c>
-      <c r="B447" t="s">
+      <c r="C447" t="s">
         <v>1429</v>
       </c>
-      <c r="C447" t="s">
+      <c r="D447" t="s">
+        <v>71</v>
+      </c>
+      <c r="E447" s="2">
+        <v>44859.92421810185</v>
+      </c>
+      <c r="F447" s="2">
+        <v>44859.92421810185</v>
+      </c>
+      <c r="G447" t="s">
+        <v>13</v>
+      </c>
+      <c r="H447" t="s">
         <v>1430</v>
-      </c>
-      <c r="D447" t="s">
-        <v>71</v>
-      </c>
-      <c r="E447" s="2">
-        <v>44859.938454641204</v>
-      </c>
-      <c r="F447" s="2">
-        <v>44859.938454641204</v>
-      </c>
-      <c r="G447" t="s">
-        <v>13</v>
-      </c>
-      <c r="H447" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B448" t="s">
         <v>1432</v>
       </c>
-      <c r="B448" t="s">
+      <c r="C448" t="s">
         <v>1433</v>
       </c>
-      <c r="C448" t="s">
+      <c r="D448" t="s">
+        <v>71</v>
+      </c>
+      <c r="E448" s="2">
+        <v>44859.938454641204</v>
+      </c>
+      <c r="F448" s="2">
+        <v>44859.938454641204</v>
+      </c>
+      <c r="G448" t="s">
+        <v>13</v>
+      </c>
+      <c r="H448" t="s">
         <v>1434</v>
-      </c>
-      <c r="D448" t="s">
-        <v>12</v>
-      </c>
-      <c r="E448" s="2">
-        <v>44907.922179710644</v>
-      </c>
-      <c r="F448" s="2">
-        <v>44907.922179710644</v>
-      </c>
-      <c r="G448" t="s">
-        <v>13</v>
-      </c>
-      <c r="H448" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="449">
@@ -17060,19 +17069,19 @@
         <v>1437</v>
       </c>
       <c r="D449" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E449" s="2">
-        <v>44859.93578130787</v>
+        <v>44907.922179710644</v>
       </c>
       <c r="F449" s="2">
-        <v>44873.7455787037</v>
+        <v>44907.922179710644</v>
       </c>
       <c r="G449" t="s">
         <v>13</v>
       </c>
       <c r="H449" t="s">
-        <v>170</v>
+        <v>574</v>
       </c>
     </row>
     <row r="450">
@@ -17089,10 +17098,10 @@
         <v>71</v>
       </c>
       <c r="E450" s="2">
-        <v>44859.935374594905</v>
+        <v>44859.93578130787</v>
       </c>
       <c r="F450" s="2">
-        <v>44859.935374594905</v>
+        <v>44873.7455787037</v>
       </c>
       <c r="G450" t="s">
         <v>13</v>
@@ -17115,47 +17124,47 @@
         <v>71</v>
       </c>
       <c r="E451" s="2">
-        <v>44859.933833877316</v>
+        <v>44859.935374594905</v>
       </c>
       <c r="F451" s="2">
-        <v>44859.933833877316</v>
+        <v>44859.935374594905</v>
       </c>
       <c r="G451" t="s">
         <v>13</v>
       </c>
       <c r="H451" t="s">
-        <v>387</v>
+        <v>170</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>1207</v>
+        <v>1444</v>
       </c>
       <c r="B452" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C452" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D452" t="s">
         <v>71</v>
       </c>
       <c r="E452" s="2">
-        <v>44855.73619043981</v>
+        <v>44859.933833877316</v>
       </c>
       <c r="F452" s="2">
-        <v>44855.73619043981</v>
+        <v>44859.933833877316</v>
       </c>
       <c r="G452" t="s">
         <v>13</v>
       </c>
       <c r="H452" t="s">
-        <v>189</v>
+        <v>387</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>1446</v>
+        <v>1210</v>
       </c>
       <c r="B453" t="s">
         <v>1447</v>
@@ -17167,16 +17176,16 @@
         <v>71</v>
       </c>
       <c r="E453" s="2">
-        <v>44914.89401315972</v>
+        <v>44855.73619043981</v>
       </c>
       <c r="F453" s="2">
-        <v>44916.22392685185</v>
+        <v>44855.73619043981</v>
       </c>
       <c r="G453" t="s">
         <v>13</v>
       </c>
       <c r="H453" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
     </row>
     <row r="454">
@@ -17193,16 +17202,16 @@
         <v>71</v>
       </c>
       <c r="E454" s="2">
-        <v>44859.93432983797</v>
+        <v>44914.89401315972</v>
       </c>
       <c r="F454" s="2">
-        <v>44859.93432983797</v>
+        <v>44916.22392685185</v>
       </c>
       <c r="G454" t="s">
         <v>13</v>
       </c>
       <c r="H454" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
     </row>
     <row r="455">
@@ -17219,16 +17228,16 @@
         <v>71</v>
       </c>
       <c r="E455" s="2">
-        <v>44859.93146194445</v>
+        <v>44859.93432983797</v>
       </c>
       <c r="F455" s="2">
-        <v>44879.90899305556</v>
+        <v>44859.93432983797</v>
       </c>
       <c r="G455" t="s">
         <v>13</v>
       </c>
       <c r="H455" t="s">
-        <v>1420</v>
+        <v>170</v>
       </c>
     </row>
     <row r="456">
@@ -17242,74 +17251,74 @@
         <v>1457</v>
       </c>
       <c r="D456" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E456" s="2">
-        <v>45055.763230682875</v>
+        <v>44859.93146194445</v>
       </c>
       <c r="F456" s="2">
-        <v>45055.85561342593</v>
+        <v>44879.90899305556</v>
       </c>
       <c r="G456" t="s">
         <v>13</v>
       </c>
       <c r="H456" t="s">
-        <v>63</v>
-      </c>
-      <c r="I456" t="s">
-        <v>1458</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B457" t="s">
         <v>1459</v>
       </c>
-      <c r="B457" t="s">
+      <c r="C457" t="s">
         <v>1460</v>
       </c>
-      <c r="C457" t="s">
+      <c r="D457" t="s">
+        <v>12</v>
+      </c>
+      <c r="E457" s="2">
+        <v>45055.763230682875</v>
+      </c>
+      <c r="F457" s="2">
+        <v>45055.85561342593</v>
+      </c>
+      <c r="G457" t="s">
+        <v>13</v>
+      </c>
+      <c r="H457" t="s">
+        <v>63</v>
+      </c>
+      <c r="I457" t="s">
         <v>1461</v>
-      </c>
-      <c r="D457" t="s">
-        <v>71</v>
-      </c>
-      <c r="E457" s="2">
-        <v>44859.93152863426</v>
-      </c>
-      <c r="F457" s="2">
-        <v>44859.93152863426</v>
-      </c>
-      <c r="G457" t="s">
-        <v>13</v>
-      </c>
-      <c r="H457" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B458" t="s">
         <v>1463</v>
       </c>
-      <c r="B458" t="s">
+      <c r="C458" t="s">
         <v>1464</v>
       </c>
-      <c r="C458" t="s">
+      <c r="D458" t="s">
+        <v>71</v>
+      </c>
+      <c r="E458" s="2">
+        <v>44859.93152863426</v>
+      </c>
+      <c r="F458" s="2">
+        <v>44859.93152863426</v>
+      </c>
+      <c r="G458" t="s">
+        <v>13</v>
+      </c>
+      <c r="H458" t="s">
         <v>1465</v>
-      </c>
-      <c r="D458" t="s">
-        <v>71</v>
-      </c>
-      <c r="E458" s="2">
-        <v>44859.928346712964</v>
-      </c>
-      <c r="F458" s="2">
-        <v>44859.928346712964</v>
-      </c>
-      <c r="G458" t="s">
-        <v>13</v>
-      </c>
-      <c r="H458" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="459">
@@ -17320,39 +17329,42 @@
         <v>1467</v>
       </c>
       <c r="C459" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D459" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E459" s="2">
-        <v>44725.96115452546</v>
+        <v>44859.928346712964</v>
       </c>
       <c r="F459" s="2">
-        <v>44725.96146990741</v>
+        <v>44859.928346712964</v>
       </c>
       <c r="G459" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H459" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B460" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C460" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D460" t="s">
         <v>12</v>
       </c>
       <c r="E460" s="2">
-        <v>44727.0335109838</v>
+        <v>44725.96115452546</v>
       </c>
       <c r="F460" s="2">
-        <v>44727.70627314815</v>
+        <v>44725.96146990741</v>
       </c>
       <c r="G460" t="s">
         <v>24</v>
@@ -17360,10 +17372,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B461" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C461" t="s">
         <v>1472</v>
@@ -17372,10 +17384,10 @@
         <v>12</v>
       </c>
       <c r="E461" s="2">
-        <v>44767.76461564815</v>
+        <v>44727.0335109838</v>
       </c>
       <c r="F461" s="2">
-        <v>44771.68592592592</v>
+        <v>44727.70627314815</v>
       </c>
       <c r="G461" t="s">
         <v>24</v>
@@ -17395,10 +17407,10 @@
         <v>12</v>
       </c>
       <c r="E462" s="2">
-        <v>44698.66894667824</v>
+        <v>44767.76461564815</v>
       </c>
       <c r="F462" s="2">
-        <v>44698.66894667824</v>
+        <v>44771.68592592592</v>
       </c>
       <c r="G462" t="s">
         <v>24</v>
@@ -17418,13 +17430,13 @@
         <v>12</v>
       </c>
       <c r="E463" s="2">
-        <v>44677.833705324076</v>
+        <v>44698.66894667824</v>
       </c>
       <c r="F463" s="2">
-        <v>44750.761249999996</v>
+        <v>44698.66894667824</v>
       </c>
       <c r="G463" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
     </row>
     <row r="464">
@@ -17441,13 +17453,13 @@
         <v>12</v>
       </c>
       <c r="E464" s="2">
-        <v>44763.80106096065</v>
+        <v>44677.833705324076</v>
       </c>
       <c r="F464" s="2">
-        <v>44763.80106096065</v>
+        <v>44750.761249999996</v>
       </c>
       <c r="G464" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
     </row>
     <row r="465">
@@ -17464,10 +17476,10 @@
         <v>12</v>
       </c>
       <c r="E465" s="2">
-        <v>44728.98048563657</v>
+        <v>44763.80106096065</v>
       </c>
       <c r="F465" s="2">
-        <v>44735.64934027778</v>
+        <v>44763.80106096065</v>
       </c>
       <c r="G465" t="s">
         <v>24</v>
@@ -17487,10 +17499,10 @@
         <v>12</v>
       </c>
       <c r="E466" s="2">
-        <v>44693.70736049769</v>
+        <v>44728.98048563657</v>
       </c>
       <c r="F466" s="2">
-        <v>44693.70736049769</v>
+        <v>44735.64934027778</v>
       </c>
       <c r="G466" t="s">
         <v>24</v>
@@ -17507,299 +17519,299 @@
         <v>1490</v>
       </c>
       <c r="D467" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E467" s="2">
-        <v>45051.934845613425</v>
+        <v>44693.70736049769</v>
       </c>
       <c r="F467" s="2">
-        <v>45068.88576388889</v>
+        <v>44693.70736049769</v>
       </c>
       <c r="G467" t="s">
-        <v>13</v>
-      </c>
-      <c r="H467" t="s">
-        <v>1491</v>
+        <v>24</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B468" t="s">
         <v>1492</v>
       </c>
-      <c r="B468" t="s">
+      <c r="C468" t="s">
         <v>1493</v>
       </c>
-      <c r="C468" t="s">
+      <c r="D468" t="s">
+        <v>23</v>
+      </c>
+      <c r="E468" s="2">
+        <v>45051.934845613425</v>
+      </c>
+      <c r="F468" s="2">
+        <v>45068.88576388889</v>
+      </c>
+      <c r="G468" t="s">
+        <v>13</v>
+      </c>
+      <c r="H468" t="s">
         <v>1494</v>
-      </c>
-      <c r="D468" t="s">
-        <v>12</v>
-      </c>
-      <c r="E468" s="2">
-        <v>45075.75442469907</v>
-      </c>
-      <c r="F468" s="2">
-        <v>45075.75442469907</v>
-      </c>
-      <c r="G468" t="s">
-        <v>13</v>
-      </c>
-      <c r="H468" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
+        <v>979</v>
+      </c>
+      <c r="B469" t="s">
         <v>1495</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C469" t="s">
         <v>1496</v>
       </c>
-      <c r="C469" t="s">
-        <v>1497</v>
-      </c>
       <c r="D469" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E469" s="2">
-        <v>44859.92062684028</v>
+        <v>45075.75442469907</v>
       </c>
       <c r="F469" s="2">
-        <v>44859.92062684028</v>
+        <v>45075.75442469907</v>
       </c>
       <c r="G469" t="s">
         <v>13</v>
       </c>
       <c r="H469" t="s">
-        <v>122</v>
+        <v>512</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B470" t="s">
         <v>1498</v>
       </c>
-      <c r="B470" t="s">
+      <c r="C470" t="s">
         <v>1499</v>
       </c>
-      <c r="C470" t="s">
-        <v>1500</v>
-      </c>
       <c r="D470" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E470" s="2">
-        <v>44879.74737271991</v>
+        <v>44859.92062684028</v>
       </c>
       <c r="F470" s="2">
-        <v>44879.783263888894</v>
+        <v>44859.92062684028</v>
       </c>
       <c r="G470" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H470" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B471" t="s">
         <v>1501</v>
       </c>
-      <c r="B471" t="s">
+      <c r="C471" t="s">
         <v>1502</v>
       </c>
-      <c r="C471" t="s">
-        <v>1503</v>
-      </c>
       <c r="D471" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E471" s="2">
-        <v>44859.93769638889</v>
+        <v>44879.74737271991</v>
       </c>
       <c r="F471" s="2">
-        <v>44859.93769638889</v>
+        <v>44879.783263888894</v>
       </c>
       <c r="G471" t="s">
-        <v>13</v>
-      </c>
-      <c r="H471" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B472" t="s">
         <v>1504</v>
       </c>
-      <c r="B472" t="s">
+      <c r="C472" t="s">
         <v>1505</v>
       </c>
-      <c r="C472" t="s">
-        <v>1506</v>
-      </c>
       <c r="D472" t="s">
         <v>71</v>
       </c>
       <c r="E472" s="2">
-        <v>44859.91848232639</v>
+        <v>44859.93769638889</v>
       </c>
       <c r="F472" s="2">
-        <v>44859.91848232639</v>
+        <v>44859.93769638889</v>
       </c>
       <c r="G472" t="s">
         <v>13</v>
       </c>
       <c r="H472" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B473" t="s">
         <v>1507</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C473" t="s">
         <v>1508</v>
       </c>
-      <c r="C473" t="s">
-        <v>1509</v>
-      </c>
       <c r="D473" t="s">
         <v>71</v>
       </c>
       <c r="E473" s="2">
-        <v>44859.932892349534</v>
+        <v>44859.91848232639</v>
       </c>
       <c r="F473" s="2">
-        <v>44887.67880787037</v>
+        <v>44859.91848232639</v>
       </c>
       <c r="G473" t="s">
         <v>13</v>
       </c>
       <c r="H473" t="s">
-        <v>1510</v>
+        <v>84</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C474" t="s">
         <v>1511</v>
       </c>
-      <c r="B474" t="s">
+      <c r="D474" t="s">
+        <v>71</v>
+      </c>
+      <c r="E474" s="2">
+        <v>44859.932892349534</v>
+      </c>
+      <c r="F474" s="2">
+        <v>44887.67880787037</v>
+      </c>
+      <c r="G474" t="s">
+        <v>13</v>
+      </c>
+      <c r="H474" t="s">
         <v>1512</v>
-      </c>
-      <c r="C474" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D474" t="s">
-        <v>71</v>
-      </c>
-      <c r="E474" s="2">
-        <v>44859.92826479167</v>
-      </c>
-      <c r="F474" s="2">
-        <v>44859.92826479167</v>
-      </c>
-      <c r="G474" t="s">
-        <v>13</v>
-      </c>
-      <c r="H474" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B475" t="s">
         <v>1514</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C475" t="s">
         <v>1515</v>
       </c>
-      <c r="C475" t="s">
-        <v>1516</v>
-      </c>
       <c r="D475" t="s">
         <v>71</v>
       </c>
       <c r="E475" s="2">
-        <v>44859.921826192134</v>
+        <v>44859.92826479167</v>
       </c>
       <c r="F475" s="2">
-        <v>44859.921826192134</v>
+        <v>44859.92826479167</v>
       </c>
       <c r="G475" t="s">
         <v>13</v>
       </c>
       <c r="H475" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B476" t="s">
         <v>1517</v>
       </c>
-      <c r="B476" t="s">
+      <c r="C476" t="s">
         <v>1518</v>
       </c>
-      <c r="C476" t="s">
-        <v>1519</v>
-      </c>
       <c r="D476" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E476" s="2">
-        <v>44895.639121562504</v>
+        <v>44859.921826192134</v>
       </c>
       <c r="F476" s="2">
-        <v>44923.85045643519</v>
+        <v>44859.921826192134</v>
       </c>
       <c r="G476" t="s">
         <v>13</v>
       </c>
       <c r="H476" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B477" t="s">
         <v>1520</v>
       </c>
-      <c r="B477" t="s">
+      <c r="C477" t="s">
         <v>1521</v>
       </c>
-      <c r="C477" t="s">
-        <v>1522</v>
-      </c>
       <c r="D477" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E477" s="2">
-        <v>44907.95003063657</v>
+        <v>44895.639121562504</v>
       </c>
       <c r="F477" s="2">
-        <v>44909.89876157408</v>
+        <v>44923.85045643519</v>
       </c>
       <c r="G477" t="s">
         <v>13</v>
       </c>
       <c r="H477" t="s">
-        <v>401</v>
+        <v>233</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B478" t="s">
         <v>1523</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1081</v>
       </c>
       <c r="C478" t="s">
         <v>1524</v>
       </c>
       <c r="D478" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E478" s="2">
-        <v>44909.74857092593</v>
+        <v>44907.95003063657</v>
       </c>
       <c r="F478" s="2">
-        <v>44909.74857092593</v>
+        <v>44909.89876157408</v>
       </c>
       <c r="G478" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H478" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="479">
@@ -17807,51 +17819,48 @@
         <v>1525</v>
       </c>
       <c r="B479" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C479" t="s">
         <v>1526</v>
       </c>
-      <c r="C479" t="s">
-        <v>1527</v>
-      </c>
       <c r="D479" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E479" s="2">
-        <v>44908.67593387731</v>
+        <v>44909.74857092593</v>
       </c>
       <c r="F479" s="2">
-        <v>44924.831087962964</v>
+        <v>44909.74857092593</v>
       </c>
       <c r="G479" t="s">
-        <v>13</v>
-      </c>
-      <c r="H479" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B480" t="s">
         <v>1528</v>
-      </c>
-      <c r="B480" t="s">
-        <v>1529</v>
       </c>
       <c r="C480" t="s">
         <v>1529</v>
       </c>
       <c r="D480" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E480" s="2">
-        <v>44889.70708597222</v>
+        <v>44908.67593387731</v>
       </c>
       <c r="F480" s="2">
-        <v>44889.70708597222</v>
+        <v>44924.831087962964</v>
       </c>
       <c r="G480" t="s">
         <v>13</v>
       </c>
       <c r="H480" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
     </row>
     <row r="481">
@@ -17862,172 +17871,172 @@
         <v>1531</v>
       </c>
       <c r="C481" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D481" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E481" s="2">
-        <v>44859.920554386576</v>
+        <v>44889.70708597222</v>
       </c>
       <c r="F481" s="2">
-        <v>44859.920554386576</v>
+        <v>44889.70708597222</v>
       </c>
       <c r="G481" t="s">
         <v>13</v>
       </c>
       <c r="H481" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B482" t="s">
         <v>1533</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
         <v>1534</v>
       </c>
-      <c r="C482" t="s">
-        <v>1535</v>
-      </c>
       <c r="D482" t="s">
         <v>71</v>
       </c>
       <c r="E482" s="2">
-        <v>44859.93691284722</v>
+        <v>44859.920554386576</v>
       </c>
       <c r="F482" s="2">
-        <v>44859.93691284722</v>
+        <v>44859.920554386576</v>
       </c>
       <c r="G482" t="s">
         <v>13</v>
       </c>
       <c r="H482" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B483" t="s">
         <v>1536</v>
       </c>
-      <c r="B483" t="s">
+      <c r="C483" t="s">
         <v>1537</v>
       </c>
-      <c r="C483" t="s">
-        <v>1538</v>
-      </c>
       <c r="D483" t="s">
         <v>71</v>
       </c>
       <c r="E483" s="2">
-        <v>44859.939403530094</v>
+        <v>44859.93691284722</v>
       </c>
       <c r="F483" s="2">
-        <v>44859.939403530094</v>
+        <v>44859.93691284722</v>
       </c>
       <c r="G483" t="s">
         <v>13</v>
       </c>
       <c r="H483" t="s">
-        <v>684</v>
+        <v>126</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B484" t="s">
         <v>1539</v>
       </c>
-      <c r="B484" t="s">
+      <c r="C484" t="s">
         <v>1540</v>
       </c>
-      <c r="C484" t="s">
-        <v>1541</v>
-      </c>
       <c r="D484" t="s">
         <v>71</v>
       </c>
       <c r="E484" s="2">
-        <v>44859.928035185185</v>
+        <v>44859.939403530094</v>
       </c>
       <c r="F484" s="2">
-        <v>44888.713113425925</v>
+        <v>44859.939403530094</v>
       </c>
       <c r="G484" t="s">
         <v>13</v>
       </c>
       <c r="H484" t="s">
-        <v>212</v>
+        <v>684</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B485" t="s">
         <v>1542</v>
       </c>
-      <c r="B485" t="s">
+      <c r="C485" t="s">
         <v>1543</v>
       </c>
-      <c r="C485" t="s">
-        <v>1544</v>
-      </c>
       <c r="D485" t="s">
         <v>71</v>
       </c>
       <c r="E485" s="2">
-        <v>44859.933182256944</v>
+        <v>44859.928035185185</v>
       </c>
       <c r="F485" s="2">
-        <v>44859.933182256944</v>
+        <v>44888.713113425925</v>
       </c>
       <c r="G485" t="s">
         <v>13</v>
       </c>
       <c r="H485" t="s">
-        <v>401</v>
+        <v>212</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B486" t="s">
         <v>1545</v>
       </c>
-      <c r="B486" t="s">
+      <c r="C486" t="s">
         <v>1546</v>
       </c>
-      <c r="C486" t="s">
-        <v>1547</v>
-      </c>
       <c r="D486" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E486" s="2">
-        <v>44886.75915935185</v>
+        <v>44859.933182256944</v>
       </c>
       <c r="F486" s="2">
-        <v>44886.75915935185</v>
+        <v>44859.933182256944</v>
       </c>
       <c r="G486" t="s">
         <v>13</v>
       </c>
       <c r="H486" t="s">
-        <v>189</v>
+        <v>401</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B487" t="s">
         <v>1548</v>
       </c>
-      <c r="B487" t="s">
+      <c r="C487" t="s">
         <v>1549</v>
       </c>
-      <c r="C487" t="s">
-        <v>1550</v>
-      </c>
       <c r="D487" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E487" s="2">
-        <v>44859.916176099534</v>
+        <v>44886.75915935185</v>
       </c>
       <c r="F487" s="2">
-        <v>44859.916176099534</v>
+        <v>44886.75915935185</v>
       </c>
       <c r="G487" t="s">
         <v>13</v>
@@ -18038,533 +18047,536 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B488" t="s">
         <v>1551</v>
       </c>
-      <c r="B488" t="s">
+      <c r="C488" t="s">
         <v>1552</v>
       </c>
-      <c r="C488" t="s">
-        <v>1553</v>
-      </c>
       <c r="D488" t="s">
         <v>71</v>
       </c>
       <c r="E488" s="2">
-        <v>44859.92598895833</v>
+        <v>44859.916176099534</v>
       </c>
       <c r="F488" s="2">
-        <v>44859.92598895833</v>
+        <v>44859.916176099534</v>
       </c>
       <c r="G488" t="s">
         <v>13</v>
       </c>
       <c r="H488" t="s">
-        <v>632</v>
+        <v>189</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B489" t="s">
         <v>1554</v>
       </c>
-      <c r="B489" t="s">
+      <c r="C489" t="s">
         <v>1555</v>
       </c>
-      <c r="C489" t="s">
-        <v>1556</v>
-      </c>
       <c r="D489" t="s">
         <v>71</v>
       </c>
       <c r="E489" s="2">
-        <v>44914.919447418986</v>
+        <v>44859.92598895833</v>
       </c>
       <c r="F489" s="2">
-        <v>44924.83788194445</v>
+        <v>44859.92598895833</v>
       </c>
       <c r="G489" t="s">
         <v>13</v>
       </c>
       <c r="H489" t="s">
-        <v>122</v>
+        <v>632</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B490" t="s">
         <v>1557</v>
       </c>
-      <c r="B490" t="s">
+      <c r="C490" t="s">
         <v>1558</v>
       </c>
-      <c r="C490" t="s">
-        <v>1559</v>
-      </c>
       <c r="D490" t="s">
         <v>71</v>
       </c>
       <c r="E490" s="2">
-        <v>44859.93275395833</v>
+        <v>44914.919447418986</v>
       </c>
       <c r="F490" s="2">
-        <v>44859.93275395833</v>
+        <v>44924.83788194445</v>
       </c>
       <c r="G490" t="s">
         <v>13</v>
       </c>
       <c r="H490" t="s">
-        <v>606</v>
+        <v>122</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B491" t="s">
         <v>1560</v>
       </c>
-      <c r="B491" t="s">
+      <c r="C491" t="s">
         <v>1561</v>
       </c>
-      <c r="C491" t="s">
-        <v>1562</v>
-      </c>
       <c r="D491" t="s">
         <v>71</v>
       </c>
       <c r="E491" s="2">
-        <v>44859.92702840277</v>
+        <v>44859.93275395833</v>
       </c>
       <c r="F491" s="2">
-        <v>44859.92702840277</v>
+        <v>44859.93275395833</v>
       </c>
       <c r="G491" t="s">
         <v>13</v>
       </c>
       <c r="H491" t="s">
-        <v>1216</v>
+        <v>606</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B492" t="s">
         <v>1563</v>
       </c>
-      <c r="B492" t="s">
+      <c r="C492" t="s">
         <v>1564</v>
       </c>
-      <c r="C492" t="s">
-        <v>1565</v>
-      </c>
       <c r="D492" t="s">
         <v>71</v>
       </c>
       <c r="E492" s="2">
-        <v>44914.81462127315</v>
+        <v>44859.92702840277</v>
       </c>
       <c r="F492" s="2">
-        <v>44915.879652777774</v>
+        <v>44859.92702840277</v>
       </c>
       <c r="G492" t="s">
         <v>13</v>
       </c>
       <c r="H492" t="s">
-        <v>185</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B493" t="s">
         <v>1566</v>
       </c>
-      <c r="B493" t="s">
+      <c r="C493" t="s">
         <v>1567</v>
       </c>
-      <c r="C493" t="s">
-        <v>1568</v>
-      </c>
       <c r="D493" t="s">
         <v>71</v>
       </c>
       <c r="E493" s="2">
-        <v>44859.92138648148</v>
+        <v>44914.81462127315</v>
       </c>
       <c r="F493" s="2">
-        <v>44859.92138648148</v>
+        <v>44915.879652777774</v>
       </c>
       <c r="G493" t="s">
         <v>13</v>
       </c>
       <c r="H493" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B494" t="s">
         <v>1569</v>
       </c>
-      <c r="B494" t="s">
+      <c r="C494" t="s">
         <v>1570</v>
       </c>
-      <c r="C494" t="s">
-        <v>1571</v>
-      </c>
       <c r="D494" t="s">
         <v>71</v>
       </c>
       <c r="E494" s="2">
-        <v>44859.92012130787</v>
+        <v>44859.92138648148</v>
       </c>
       <c r="F494" s="2">
-        <v>44859.92012130787</v>
+        <v>44859.92138648148</v>
       </c>
       <c r="G494" t="s">
         <v>13</v>
       </c>
       <c r="H494" t="s">
-        <v>922</v>
+        <v>122</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B495" t="s">
         <v>1572</v>
       </c>
-      <c r="B495" t="s">
+      <c r="C495" t="s">
         <v>1573</v>
       </c>
-      <c r="C495" t="s">
-        <v>1574</v>
-      </c>
       <c r="D495" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E495" s="2">
-        <v>44882.60088835648</v>
+        <v>44859.92012130787</v>
       </c>
       <c r="F495" s="2">
-        <v>44882.60109953704</v>
+        <v>44859.92012130787</v>
       </c>
       <c r="G495" t="s">
-        <v>166</v>
+        <v>13</v>
+      </c>
+      <c r="H495" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B496" t="s">
         <v>1575</v>
       </c>
-      <c r="B496" t="s">
+      <c r="C496" t="s">
         <v>1576</v>
       </c>
-      <c r="C496" t="s">
-        <v>1577</v>
-      </c>
       <c r="D496" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E496" s="2">
-        <v>44859.92529557871</v>
+        <v>44882.60088835648</v>
       </c>
       <c r="F496" s="2">
-        <v>44859.92529557871</v>
+        <v>44882.60109953704</v>
       </c>
       <c r="G496" t="s">
-        <v>13</v>
-      </c>
-      <c r="H496" t="s">
-        <v>354</v>
+        <v>166</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B497" t="s">
         <v>1578</v>
       </c>
-      <c r="B497" t="s">
+      <c r="C497" t="s">
         <v>1579</v>
       </c>
-      <c r="C497" t="s">
-        <v>1580</v>
-      </c>
       <c r="D497" t="s">
         <v>71</v>
       </c>
       <c r="E497" s="2">
-        <v>44859.919726458334</v>
+        <v>44859.92529557871</v>
       </c>
       <c r="F497" s="2">
-        <v>44859.919726458334</v>
+        <v>44859.92529557871</v>
       </c>
       <c r="G497" t="s">
         <v>13</v>
       </c>
       <c r="H497" t="s">
-        <v>563</v>
+        <v>354</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B498" t="s">
         <v>1581</v>
       </c>
-      <c r="B498" t="s">
+      <c r="C498" t="s">
         <v>1582</v>
       </c>
-      <c r="C498" t="s">
-        <v>1583</v>
-      </c>
       <c r="D498" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E498" s="2">
-        <v>44923.65660614583</v>
+        <v>44859.919726458334</v>
       </c>
       <c r="F498" s="2">
-        <v>44923.65660614583</v>
+        <v>44859.919726458334</v>
       </c>
       <c r="G498" t="s">
         <v>13</v>
       </c>
       <c r="H498" t="s">
-        <v>200</v>
+        <v>563</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B499" t="s">
         <v>1584</v>
       </c>
-      <c r="B499" t="s">
+      <c r="C499" t="s">
         <v>1585</v>
       </c>
-      <c r="C499" t="s">
-        <v>1586</v>
-      </c>
       <c r="D499" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E499" s="2">
-        <v>44859.921670069445</v>
+        <v>44923.65660614583</v>
       </c>
       <c r="F499" s="2">
-        <v>44859.921670069445</v>
+        <v>44923.65660614583</v>
       </c>
       <c r="G499" t="s">
         <v>13</v>
       </c>
       <c r="H499" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B500" t="s">
         <v>1587</v>
       </c>
-      <c r="B500" t="s">
+      <c r="C500" t="s">
         <v>1588</v>
       </c>
-      <c r="C500" t="s">
-        <v>1589</v>
-      </c>
       <c r="D500" t="s">
         <v>71</v>
       </c>
       <c r="E500" s="2">
-        <v>44859.93821581018</v>
+        <v>44859.921670069445</v>
       </c>
       <c r="F500" s="2">
-        <v>44859.93821581018</v>
+        <v>44859.921670069445</v>
       </c>
       <c r="G500" t="s">
         <v>13</v>
       </c>
       <c r="H500" t="s">
-        <v>1331</v>
+        <v>122</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B501" t="s">
         <v>1590</v>
       </c>
-      <c r="B501" t="s">
+      <c r="C501" t="s">
         <v>1591</v>
       </c>
-      <c r="C501" t="s">
-        <v>1592</v>
-      </c>
       <c r="D501" t="s">
         <v>71</v>
       </c>
       <c r="E501" s="2">
-        <v>44859.930722476856</v>
+        <v>44859.93821581018</v>
       </c>
       <c r="F501" s="2">
-        <v>44859.930722476856</v>
+        <v>44859.93821581018</v>
       </c>
       <c r="G501" t="s">
         <v>13</v>
       </c>
       <c r="H501" t="s">
-        <v>133</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B502" t="s">
         <v>1593</v>
       </c>
-      <c r="B502" t="s">
+      <c r="C502" t="s">
         <v>1594</v>
       </c>
-      <c r="C502" t="s">
-        <v>1595</v>
-      </c>
       <c r="D502" t="s">
         <v>71</v>
       </c>
       <c r="E502" s="2">
-        <v>44859.93816082176</v>
+        <v>44859.930722476856</v>
       </c>
       <c r="F502" s="2">
-        <v>44859.93816082176</v>
+        <v>44859.930722476856</v>
       </c>
       <c r="G502" t="s">
         <v>13</v>
       </c>
       <c r="H502" t="s">
-        <v>1331</v>
+        <v>133</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B503" t="s">
         <v>1596</v>
       </c>
-      <c r="B503" t="s">
+      <c r="C503" t="s">
         <v>1597</v>
       </c>
-      <c r="C503" t="s">
-        <v>1598</v>
-      </c>
       <c r="D503" t="s">
         <v>71</v>
       </c>
       <c r="E503" s="2">
-        <v>44859.92550643519</v>
+        <v>44859.93816082176</v>
       </c>
       <c r="F503" s="2">
-        <v>44859.92550643519</v>
+        <v>44859.93816082176</v>
       </c>
       <c r="G503" t="s">
         <v>13</v>
       </c>
       <c r="H503" t="s">
-        <v>354</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B504" t="s">
         <v>1599</v>
       </c>
-      <c r="B504" t="s">
+      <c r="C504" t="s">
         <v>1600</v>
       </c>
-      <c r="C504" t="s">
-        <v>1601</v>
-      </c>
       <c r="D504" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E504" s="2">
-        <v>44795.73561664352</v>
+        <v>44859.92550643519</v>
       </c>
       <c r="F504" s="2">
-        <v>44795.73561664352</v>
+        <v>44859.92550643519</v>
       </c>
       <c r="G504" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H504" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B505" t="s">
         <v>1602</v>
       </c>
-      <c r="B505" t="s">
+      <c r="C505" t="s">
         <v>1603</v>
-      </c>
-      <c r="C505" t="s">
-        <v>1604</v>
       </c>
       <c r="D505" t="s">
         <v>12</v>
       </c>
       <c r="E505" s="2">
-        <v>44895.63847607639</v>
+        <v>44795.73561664352</v>
       </c>
       <c r="F505" s="2">
-        <v>44923.85045643519</v>
+        <v>44795.73561664352</v>
       </c>
       <c r="G505" t="s">
-        <v>13</v>
-      </c>
-      <c r="H505" t="s">
-        <v>233</v>
+        <v>24</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B506" t="s">
         <v>1605</v>
       </c>
-      <c r="B506" t="s">
+      <c r="C506" t="s">
         <v>1606</v>
       </c>
-      <c r="C506" t="s">
-        <v>1607</v>
-      </c>
       <c r="D506" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E506" s="2">
-        <v>44859.9353072338</v>
+        <v>44895.63847607639</v>
       </c>
       <c r="F506" s="2">
-        <v>44859.9353072338</v>
+        <v>44923.85045643519</v>
       </c>
       <c r="G506" t="s">
         <v>13</v>
       </c>
       <c r="H506" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B507" t="s">
         <v>1608</v>
       </c>
-      <c r="B507" t="s">
+      <c r="C507" t="s">
         <v>1609</v>
       </c>
-      <c r="C507" t="s">
-        <v>1610</v>
-      </c>
       <c r="D507" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E507" s="2">
-        <v>44886.7588196875</v>
+        <v>44859.9353072338</v>
       </c>
       <c r="F507" s="2">
-        <v>44886.7588196875</v>
+        <v>44859.9353072338</v>
       </c>
       <c r="G507" t="s">
         <v>13</v>
+      </c>
+      <c r="H507" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B508" t="s">
         <v>1611</v>
       </c>
-      <c r="B508" t="s">
+      <c r="C508" t="s">
         <v>1612</v>
-      </c>
-      <c r="C508" t="s">
-        <v>1613</v>
       </c>
       <c r="D508" t="s">
         <v>12</v>
       </c>
       <c r="E508" s="2">
-        <v>44811.73110228009</v>
+        <v>44886.7588196875</v>
       </c>
       <c r="F508" s="2">
-        <v>44861.91060185185</v>
+        <v>44886.7588196875</v>
       </c>
       <c r="G508" t="s">
         <v>13</v>
@@ -18572,336 +18584,336 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B509" t="s">
         <v>1614</v>
       </c>
-      <c r="B509" t="s">
+      <c r="C509" t="s">
         <v>1615</v>
       </c>
-      <c r="C509" t="s">
-        <v>1616</v>
-      </c>
       <c r="D509" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E509" s="2">
-        <v>44859.9333333449</v>
+        <v>44811.73110228009</v>
       </c>
       <c r="F509" s="2">
-        <v>44859.9333333449</v>
+        <v>44861.91060185185</v>
       </c>
       <c r="G509" t="s">
         <v>13</v>
-      </c>
-      <c r="H509" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C510" t="s">
         <v>1618</v>
       </c>
-      <c r="B510" t="s">
+      <c r="D510" t="s">
+        <v>71</v>
+      </c>
+      <c r="E510" s="2">
+        <v>44859.9333333449</v>
+      </c>
+      <c r="F510" s="2">
+        <v>44859.9333333449</v>
+      </c>
+      <c r="G510" t="s">
+        <v>13</v>
+      </c>
+      <c r="H510" t="s">
         <v>1619</v>
-      </c>
-      <c r="C510" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D510" t="s">
-        <v>71</v>
-      </c>
-      <c r="E510" s="2">
-        <v>44859.92563858796</v>
-      </c>
-      <c r="F510" s="2">
-        <v>44859.92563858796</v>
-      </c>
-      <c r="G510" t="s">
-        <v>13</v>
-      </c>
-      <c r="H510" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B511" t="s">
         <v>1621</v>
       </c>
-      <c r="B511" t="s">
+      <c r="C511" t="s">
         <v>1622</v>
       </c>
-      <c r="C511" t="s">
-        <v>1623</v>
-      </c>
       <c r="D511" t="s">
         <v>71</v>
       </c>
       <c r="E511" s="2">
-        <v>44859.92086493055</v>
+        <v>44859.92563858796</v>
       </c>
       <c r="F511" s="2">
-        <v>44859.92086493055</v>
+        <v>44859.92563858796</v>
       </c>
       <c r="G511" t="s">
         <v>13</v>
       </c>
       <c r="H511" t="s">
-        <v>122</v>
+        <v>632</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B512" t="s">
         <v>1624</v>
       </c>
-      <c r="B512" t="s">
+      <c r="C512" t="s">
         <v>1625</v>
       </c>
-      <c r="C512" t="s">
-        <v>1626</v>
-      </c>
       <c r="D512" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E512" s="2">
-        <v>44908.858027662034</v>
+        <v>44859.92086493055</v>
       </c>
       <c r="F512" s="2">
-        <v>44908.858027662034</v>
+        <v>44859.92086493055</v>
       </c>
       <c r="G512" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H512" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B513" t="s">
         <v>1627</v>
       </c>
-      <c r="B513" t="s">
+      <c r="C513" t="s">
         <v>1628</v>
       </c>
-      <c r="C513" t="s">
-        <v>1629</v>
-      </c>
       <c r="D513" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E513" s="2">
-        <v>44859.930149444444</v>
+        <v>44908.858027662034</v>
       </c>
       <c r="F513" s="2">
-        <v>44859.930149444444</v>
+        <v>44908.858027662034</v>
       </c>
       <c r="G513" t="s">
-        <v>13</v>
-      </c>
-      <c r="H513" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B514" t="s">
         <v>1630</v>
       </c>
-      <c r="B514" t="s">
+      <c r="C514" t="s">
         <v>1631</v>
       </c>
-      <c r="C514" t="s">
-        <v>1632</v>
-      </c>
       <c r="D514" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E514" s="2">
-        <v>44793.76205064815</v>
+        <v>44859.930149444444</v>
       </c>
       <c r="F514" s="2">
-        <v>44793.76205064815</v>
+        <v>44859.930149444444</v>
       </c>
       <c r="G514" t="s">
         <v>13</v>
+      </c>
+      <c r="H514" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B515" t="s">
         <v>1633</v>
       </c>
-      <c r="B515" t="s">
+      <c r="C515" t="s">
         <v>1634</v>
       </c>
-      <c r="C515" t="s">
-        <v>1635</v>
-      </c>
       <c r="D515" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E515" s="2">
-        <v>44859.92957314815</v>
+        <v>44793.76205064815</v>
       </c>
       <c r="F515" s="2">
-        <v>44859.92957314815</v>
+        <v>44793.76205064815</v>
       </c>
       <c r="G515" t="s">
         <v>13</v>
-      </c>
-      <c r="H515" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B516" t="s">
         <v>1636</v>
       </c>
-      <c r="B516" t="s">
+      <c r="C516" t="s">
         <v>1637</v>
       </c>
-      <c r="C516" t="s">
-        <v>1638</v>
-      </c>
       <c r="D516" t="s">
         <v>71</v>
       </c>
       <c r="E516" s="2">
-        <v>44859.937970555555</v>
+        <v>44859.92957314815</v>
       </c>
       <c r="F516" s="2">
-        <v>44859.937970555555</v>
+        <v>44859.92957314815</v>
       </c>
       <c r="G516" t="s">
         <v>13</v>
       </c>
       <c r="H516" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B517" t="s">
         <v>1639</v>
       </c>
-      <c r="B517" t="s">
+      <c r="C517" t="s">
         <v>1640</v>
       </c>
-      <c r="C517" t="s">
-        <v>1641</v>
-      </c>
       <c r="D517" t="s">
         <v>71</v>
       </c>
       <c r="E517" s="2">
-        <v>44859.923393379635</v>
+        <v>44859.937970555555</v>
       </c>
       <c r="F517" s="2">
-        <v>44859.923393379635</v>
+        <v>44859.937970555555</v>
       </c>
       <c r="G517" t="s">
         <v>13</v>
       </c>
       <c r="H517" t="s">
-        <v>431</v>
+        <v>110</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B518" t="s">
         <v>1642</v>
       </c>
-      <c r="B518" t="s">
+      <c r="C518" t="s">
         <v>1643</v>
       </c>
-      <c r="C518" t="s">
-        <v>1644</v>
-      </c>
       <c r="D518" t="s">
         <v>71</v>
       </c>
       <c r="E518" s="2">
-        <v>44859.93065081019</v>
+        <v>44859.923393379635</v>
       </c>
       <c r="F518" s="2">
-        <v>44859.93065081019</v>
+        <v>44859.923393379635</v>
       </c>
       <c r="G518" t="s">
         <v>13</v>
       </c>
       <c r="H518" t="s">
-        <v>133</v>
+        <v>431</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B519" t="s">
         <v>1645</v>
       </c>
-      <c r="B519" t="s">
+      <c r="C519" t="s">
         <v>1646</v>
       </c>
-      <c r="C519" t="s">
-        <v>1647</v>
-      </c>
       <c r="D519" t="s">
         <v>71</v>
       </c>
       <c r="E519" s="2">
-        <v>44859.938515347225</v>
+        <v>44859.93065081019</v>
       </c>
       <c r="F519" s="2">
-        <v>44859.938515347225</v>
+        <v>44859.93065081019</v>
       </c>
       <c r="G519" t="s">
         <v>13</v>
       </c>
       <c r="H519" t="s">
-        <v>1431</v>
+        <v>133</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B520" t="s">
         <v>1648</v>
       </c>
-      <c r="B520" t="s">
+      <c r="C520" t="s">
         <v>1649</v>
       </c>
-      <c r="C520" t="s">
-        <v>1650</v>
-      </c>
       <c r="D520" t="s">
         <v>71</v>
       </c>
       <c r="E520" s="2">
-        <v>44859.939342384256</v>
+        <v>44859.938515347225</v>
       </c>
       <c r="F520" s="2">
-        <v>44872.87226851852</v>
+        <v>44859.938515347225</v>
       </c>
       <c r="G520" t="s">
         <v>13</v>
       </c>
       <c r="H520" t="s">
-        <v>1651</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>282</v>
+        <v>1650</v>
       </c>
       <c r="B521" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C521" t="s">
         <v>1652</v>
       </c>
-      <c r="C521" t="s">
+      <c r="D521" t="s">
+        <v>71</v>
+      </c>
+      <c r="E521" s="2">
+        <v>44859.939342384256</v>
+      </c>
+      <c r="F521" s="2">
+        <v>44872.87226851852</v>
+      </c>
+      <c r="G521" t="s">
+        <v>13</v>
+      </c>
+      <c r="H521" t="s">
         <v>1653</v>
-      </c>
-      <c r="D521" t="s">
-        <v>12</v>
-      </c>
-      <c r="E521" s="2">
-        <v>44708.99849732639</v>
-      </c>
-      <c r="F521" s="2">
-        <v>44711.800107013885</v>
-      </c>
-      <c r="G521" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>685</v>
+        <v>282</v>
       </c>
       <c r="B522" t="s">
         <v>1654</v>
@@ -18910,13 +18922,13 @@
         <v>1655</v>
       </c>
       <c r="D522" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E522" s="2">
-        <v>44698.8299669213</v>
+        <v>44708.99849732639</v>
       </c>
       <c r="F522" s="2">
-        <v>44698.85616898148</v>
+        <v>44711.800107013885</v>
       </c>
       <c r="G522" t="s">
         <v>24</v>
@@ -18924,22 +18936,22 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
+        <v>685</v>
+      </c>
+      <c r="B523" t="s">
         <v>1656</v>
       </c>
-      <c r="B523" t="s">
+      <c r="C523" t="s">
         <v>1657</v>
       </c>
-      <c r="C523" t="s">
-        <v>1658</v>
-      </c>
       <c r="D523" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E523" s="2">
-        <v>44693.72997344907</v>
+        <v>44698.8299669213</v>
       </c>
       <c r="F523" s="2">
-        <v>44693.72997344907</v>
+        <v>44698.85616898148</v>
       </c>
       <c r="G523" t="s">
         <v>24</v>
@@ -18947,22 +18959,22 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B524" t="s">
         <v>1659</v>
       </c>
-      <c r="B524" t="s">
+      <c r="C524" t="s">
         <v>1660</v>
       </c>
-      <c r="C524" t="s">
-        <v>1661</v>
-      </c>
       <c r="D524" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E524" s="2">
-        <v>44700.63232738426</v>
+        <v>44693.72997344907</v>
       </c>
       <c r="F524" s="2">
-        <v>44711.84630787037</v>
+        <v>44693.72997344907</v>
       </c>
       <c r="G524" t="s">
         <v>24</v>
@@ -18970,10 +18982,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B525" t="s">
         <v>1662</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1663</v>
       </c>
       <c r="C525" t="s">
         <v>1663</v>
@@ -18982,10 +18994,10 @@
         <v>23</v>
       </c>
       <c r="E525" s="2">
-        <v>44733.75398645834</v>
+        <v>44700.63232738426</v>
       </c>
       <c r="F525" s="2">
-        <v>45069.76824074074</v>
+        <v>44711.84630787037</v>
       </c>
       <c r="G525" t="s">
         <v>24</v>
@@ -18996,22 +19008,22 @@
         <v>1664</v>
       </c>
       <c r="B526" t="s">
-        <v>1100</v>
+        <v>1665</v>
       </c>
       <c r="C526" t="s">
         <v>1665</v>
       </c>
       <c r="D526" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E526" s="2">
-        <v>44726.859695231484</v>
+        <v>44733.75398645834</v>
       </c>
       <c r="F526" s="2">
-        <v>44726.859695231484</v>
+        <v>45069.76824074074</v>
       </c>
       <c r="G526" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="527">
@@ -19019,76 +19031,76 @@
         <v>1666</v>
       </c>
       <c r="B527" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C527" t="s">
         <v>1667</v>
-      </c>
-      <c r="C527" t="s">
-        <v>1668</v>
       </c>
       <c r="D527" t="s">
         <v>12</v>
       </c>
       <c r="E527" s="2">
-        <v>44729.67314881945</v>
+        <v>44726.859695231484</v>
       </c>
       <c r="F527" s="2">
-        <v>44735.65068287037</v>
+        <v>44726.859695231484</v>
       </c>
       <c r="G527" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B528" t="s">
         <v>1669</v>
       </c>
-      <c r="B528" t="s">
+      <c r="C528" t="s">
         <v>1670</v>
-      </c>
-      <c r="C528" t="s">
-        <v>1671</v>
       </c>
       <c r="D528" t="s">
         <v>12</v>
       </c>
       <c r="E528" s="2">
-        <v>44677.83481673611</v>
+        <v>44729.67314881945</v>
       </c>
       <c r="F528" s="2">
-        <v>44677.83481673611</v>
+        <v>44735.65068287037</v>
       </c>
       <c r="G528" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B529" t="s">
         <v>1672</v>
       </c>
-      <c r="B529" t="s">
+      <c r="C529" t="s">
         <v>1673</v>
-      </c>
-      <c r="C529" t="s">
-        <v>1674</v>
       </c>
       <c r="D529" t="s">
         <v>12</v>
       </c>
       <c r="E529" s="2">
-        <v>44693.83296097222</v>
+        <v>44677.83481673611</v>
       </c>
       <c r="F529" s="2">
-        <v>44769.70599537037</v>
+        <v>44677.83481673611</v>
       </c>
       <c r="G529" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B530" t="s">
         <v>1675</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1676</v>
       </c>
       <c r="C530" t="s">
         <v>1676</v>
@@ -19097,13 +19109,13 @@
         <v>12</v>
       </c>
       <c r="E530" s="2">
-        <v>44727.70527673612</v>
+        <v>44693.83296097222</v>
       </c>
       <c r="F530" s="2">
-        <v>44727.70527673612</v>
+        <v>44769.70599537037</v>
       </c>
       <c r="G530" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="531">
@@ -19114,111 +19126,111 @@
         <v>1678</v>
       </c>
       <c r="C531" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D531" t="s">
         <v>12</v>
       </c>
       <c r="E531" s="2">
-        <v>44732.82554335648</v>
+        <v>44727.70527673612</v>
       </c>
       <c r="F531" s="2">
-        <v>45076.911574074074</v>
+        <v>44727.70527673612</v>
       </c>
       <c r="G531" t="s">
-        <v>27</v>
-      </c>
-      <c r="H531" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B532" t="s">
         <v>1680</v>
       </c>
-      <c r="B532" t="s">
+      <c r="C532" t="s">
         <v>1681</v>
-      </c>
-      <c r="C532" t="s">
-        <v>1682</v>
       </c>
       <c r="D532" t="s">
         <v>12</v>
       </c>
       <c r="E532" s="2">
-        <v>45050.6537955324</v>
+        <v>44732.82554335648</v>
       </c>
       <c r="F532" s="2">
-        <v>45050.65483796297</v>
+        <v>45076.911574074074</v>
       </c>
       <c r="G532" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H532" t="s">
-        <v>14</v>
-      </c>
-      <c r="I532" t="s">
-        <v>816</v>
+        <v>275</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B533" t="s">
         <v>1683</v>
       </c>
-      <c r="B533" t="s">
+      <c r="C533" t="s">
         <v>1684</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1685</v>
       </c>
       <c r="D533" t="s">
         <v>12</v>
       </c>
       <c r="E533" s="2">
-        <v>45065.86962351852</v>
+        <v>45050.6537955324</v>
       </c>
       <c r="F533" s="2">
-        <v>45065.87002314815</v>
+        <v>45050.65483796297</v>
       </c>
       <c r="G533" t="s">
         <v>13</v>
       </c>
       <c r="H533" t="s">
-        <v>512</v>
+        <v>14</v>
       </c>
       <c r="I533" t="s">
-        <v>1686</v>
+        <v>816</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C534" t="s">
         <v>1687</v>
-      </c>
-      <c r="B534" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C534" t="s">
-        <v>1689</v>
       </c>
       <c r="D534" t="s">
         <v>12</v>
       </c>
       <c r="E534" s="2">
-        <v>44727.91790693287</v>
+        <v>45065.86962351852</v>
       </c>
       <c r="F534" s="2">
-        <v>44727.918078703704</v>
+        <v>45065.87002314815</v>
       </c>
       <c r="G534" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="H534" t="s">
+        <v>512</v>
+      </c>
+      <c r="I534" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B535" t="s">
         <v>1690</v>
-      </c>
-      <c r="B535" t="s">
-        <v>1691</v>
       </c>
       <c r="C535" t="s">
         <v>1691</v>
@@ -19227,319 +19239,316 @@
         <v>12</v>
       </c>
       <c r="E535" s="2">
-        <v>44727.705678935185</v>
+        <v>44727.91790693287</v>
       </c>
       <c r="F535" s="2">
-        <v>44727.716562500005</v>
+        <v>44727.918078703704</v>
       </c>
       <c r="G535" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>1090</v>
+        <v>1692</v>
       </c>
       <c r="B536" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C536" t="s">
-        <v>1107</v>
+        <v>1693</v>
       </c>
       <c r="D536" t="s">
         <v>12</v>
       </c>
       <c r="E536" s="2">
-        <v>44719.8747587963</v>
+        <v>44727.705678935185</v>
       </c>
       <c r="F536" s="2">
-        <v>45056.76998842593</v>
+        <v>44727.716562500005</v>
       </c>
       <c r="G536" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>1693</v>
+        <v>1093</v>
       </c>
       <c r="B537" t="s">
         <v>1694</v>
       </c>
       <c r="C537" t="s">
-        <v>1695</v>
+        <v>1110</v>
       </c>
       <c r="D537" t="s">
         <v>12</v>
       </c>
       <c r="E537" s="2">
-        <v>45068.89072384259</v>
+        <v>44719.8747587963</v>
       </c>
       <c r="F537" s="2">
-        <v>45068.89072384259</v>
+        <v>45056.76998842593</v>
       </c>
       <c r="G537" t="s">
-        <v>13</v>
-      </c>
-      <c r="H537" t="s">
-        <v>512</v>
+        <v>27</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B538" t="s">
         <v>1696</v>
       </c>
-      <c r="B538" t="s">
+      <c r="C538" t="s">
         <v>1697</v>
       </c>
-      <c r="C538" t="s">
-        <v>1698</v>
-      </c>
       <c r="D538" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E538" s="2">
-        <v>44859.93611282407</v>
+        <v>45068.89072384259</v>
       </c>
       <c r="F538" s="2">
-        <v>44874.76957175926</v>
+        <v>45068.89072384259</v>
       </c>
       <c r="G538" t="s">
         <v>13</v>
       </c>
       <c r="H538" t="s">
-        <v>1699</v>
+        <v>512</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C539" t="s">
         <v>1700</v>
       </c>
-      <c r="B539" t="s">
+      <c r="D539" t="s">
+        <v>71</v>
+      </c>
+      <c r="E539" s="2">
+        <v>44859.93611282407</v>
+      </c>
+      <c r="F539" s="2">
+        <v>44874.76957175926</v>
+      </c>
+      <c r="G539" t="s">
+        <v>13</v>
+      </c>
+      <c r="H539" t="s">
         <v>1701</v>
-      </c>
-      <c r="C539" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D539" t="s">
-        <v>71</v>
-      </c>
-      <c r="E539" s="2">
-        <v>44859.93398607639</v>
-      </c>
-      <c r="F539" s="2">
-        <v>44859.93398607639</v>
-      </c>
-      <c r="G539" t="s">
-        <v>13</v>
-      </c>
-      <c r="H539" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B540" t="s">
         <v>1703</v>
       </c>
-      <c r="B540" t="s">
+      <c r="C540" t="s">
         <v>1704</v>
       </c>
-      <c r="C540" t="s">
-        <v>1705</v>
-      </c>
       <c r="D540" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E540" s="2">
-        <v>44909.84591694444</v>
+        <v>44859.93398607639</v>
       </c>
       <c r="F540" s="2">
-        <v>44909.84591694444</v>
+        <v>44859.93398607639</v>
       </c>
       <c r="G540" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H540" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B541" t="s">
         <v>1706</v>
       </c>
-      <c r="B541" t="s">
+      <c r="C541" t="s">
         <v>1707</v>
       </c>
-      <c r="C541" t="s">
-        <v>1708</v>
-      </c>
       <c r="D541" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E541" s="2">
-        <v>44859.9334052662</v>
+        <v>44909.84591694444</v>
       </c>
       <c r="F541" s="2">
-        <v>44859.9334052662</v>
+        <v>44909.84591694444</v>
       </c>
       <c r="G541" t="s">
-        <v>13</v>
-      </c>
-      <c r="H541" t="s">
-        <v>1361</v>
+        <v>24</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B542" t="s">
         <v>1709</v>
       </c>
-      <c r="B542" t="s">
+      <c r="C542" t="s">
         <v>1710</v>
       </c>
-      <c r="C542" t="s">
-        <v>1711</v>
-      </c>
       <c r="D542" t="s">
         <v>71</v>
       </c>
       <c r="E542" s="2">
-        <v>44859.929364131945</v>
+        <v>44859.9334052662</v>
       </c>
       <c r="F542" s="2">
-        <v>44859.929364131945</v>
+        <v>44859.9334052662</v>
       </c>
       <c r="G542" t="s">
         <v>13</v>
       </c>
       <c r="H542" t="s">
-        <v>454</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B543" t="s">
         <v>1712</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
         <v>1713</v>
       </c>
-      <c r="C543" t="s">
-        <v>1714</v>
-      </c>
       <c r="D543" t="s">
         <v>71</v>
       </c>
       <c r="E543" s="2">
-        <v>44900.74120247686</v>
+        <v>44859.929364131945</v>
       </c>
       <c r="F543" s="2">
-        <v>44923.85045643519</v>
+        <v>44859.929364131945</v>
       </c>
       <c r="G543" t="s">
         <v>13</v>
       </c>
       <c r="H543" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B544" t="s">
         <v>1715</v>
       </c>
-      <c r="B544" t="s">
+      <c r="C544" t="s">
         <v>1716</v>
       </c>
-      <c r="C544" t="s">
-        <v>1717</v>
-      </c>
       <c r="D544" t="s">
         <v>71</v>
       </c>
       <c r="E544" s="2">
-        <v>44859.92606251157</v>
+        <v>44900.74120247686</v>
       </c>
       <c r="F544" s="2">
-        <v>44859.92606251157</v>
+        <v>44923.85045643519</v>
       </c>
       <c r="G544" t="s">
         <v>13</v>
       </c>
       <c r="H544" t="s">
-        <v>632</v>
+        <v>397</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B545" t="s">
         <v>1718</v>
       </c>
-      <c r="B545" t="s">
+      <c r="C545" t="s">
         <v>1719</v>
       </c>
-      <c r="C545" t="s">
-        <v>1720</v>
-      </c>
       <c r="D545" t="s">
         <v>71</v>
       </c>
       <c r="E545" s="2">
-        <v>44859.92842324074</v>
+        <v>44859.92606251157</v>
       </c>
       <c r="F545" s="2">
-        <v>44888.69736111111</v>
+        <v>44859.92606251157</v>
       </c>
       <c r="G545" t="s">
         <v>13</v>
       </c>
       <c r="H545" t="s">
-        <v>438</v>
+        <v>632</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B546" t="s">
         <v>1721</v>
       </c>
-      <c r="B546" t="s">
+      <c r="C546" t="s">
         <v>1722</v>
       </c>
-      <c r="C546" t="s">
-        <v>1723</v>
-      </c>
       <c r="D546" t="s">
         <v>71</v>
       </c>
       <c r="E546" s="2">
-        <v>44897.631306875</v>
+        <v>44859.92842324074</v>
       </c>
       <c r="F546" s="2">
-        <v>44923.85045643519</v>
+        <v>44888.69736111111</v>
       </c>
       <c r="G546" t="s">
         <v>13</v>
       </c>
       <c r="H546" t="s">
-        <v>1331</v>
+        <v>438</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B547" t="s">
         <v>1724</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1725</v>
       </c>
       <c r="C547" t="s">
         <v>1725</v>
       </c>
       <c r="D547" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E547" s="2">
-        <v>44817.67109795139</v>
+        <v>44897.631306875</v>
       </c>
       <c r="F547" s="2">
-        <v>44889.726064814815</v>
+        <v>44923.85045643519</v>
       </c>
       <c r="G547" t="s">
         <v>13</v>
       </c>
       <c r="H547" t="s">
-        <v>642</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="548">
@@ -19550,94 +19559,94 @@
         <v>1727</v>
       </c>
       <c r="C548" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D548" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E548" s="2">
-        <v>44859.930514479165</v>
+        <v>44817.67109795139</v>
       </c>
       <c r="F548" s="2">
-        <v>44859.930514479165</v>
+        <v>44889.726064814815</v>
       </c>
       <c r="G548" t="s">
         <v>13</v>
       </c>
       <c r="H548" t="s">
-        <v>133</v>
+        <v>642</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B549" t="s">
         <v>1729</v>
       </c>
-      <c r="B549" t="s">
+      <c r="C549" t="s">
         <v>1730</v>
       </c>
-      <c r="C549" t="s">
-        <v>1731</v>
-      </c>
       <c r="D549" t="s">
         <v>71</v>
       </c>
       <c r="E549" s="2">
-        <v>44859.920788564814</v>
+        <v>44859.930514479165</v>
       </c>
       <c r="F549" s="2">
-        <v>44859.920788564814</v>
+        <v>44859.930514479165</v>
       </c>
       <c r="G549" t="s">
         <v>13</v>
       </c>
       <c r="H549" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B550" t="s">
         <v>1732</v>
       </c>
-      <c r="B550" t="s">
+      <c r="C550" t="s">
         <v>1733</v>
       </c>
-      <c r="C550" t="s">
-        <v>1734</v>
-      </c>
       <c r="D550" t="s">
         <v>71</v>
       </c>
       <c r="E550" s="2">
-        <v>44859.91602778935</v>
+        <v>44859.920788564814</v>
       </c>
       <c r="F550" s="2">
-        <v>44859.91602778935</v>
+        <v>44859.920788564814</v>
       </c>
       <c r="G550" t="s">
         <v>13</v>
       </c>
       <c r="H550" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B551" t="s">
         <v>1735</v>
       </c>
-      <c r="B551" t="s">
+      <c r="C551" t="s">
         <v>1736</v>
       </c>
-      <c r="C551" t="s">
-        <v>1737</v>
-      </c>
       <c r="D551" t="s">
         <v>71</v>
       </c>
       <c r="E551" s="2">
-        <v>44855.736171701385</v>
+        <v>44859.91602778935</v>
       </c>
       <c r="F551" s="2">
-        <v>44855.736171701385</v>
+        <v>44859.91602778935</v>
       </c>
       <c r="G551" t="s">
         <v>13</v>
@@ -19648,614 +19657,614 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B552" t="s">
         <v>1738</v>
       </c>
-      <c r="B552" t="s">
+      <c r="C552" t="s">
         <v>1739</v>
       </c>
-      <c r="C552" t="s">
-        <v>1740</v>
-      </c>
       <c r="D552" t="s">
         <v>71</v>
       </c>
       <c r="E552" s="2">
-        <v>44895.71458072917</v>
+        <v>44855.736171701385</v>
       </c>
       <c r="F552" s="2">
-        <v>44924.823958333334</v>
+        <v>44855.736171701385</v>
       </c>
       <c r="G552" t="s">
         <v>13</v>
       </c>
       <c r="H552" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B553" t="s">
         <v>1741</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1742</v>
       </c>
       <c r="C553" t="s">
         <v>1742</v>
       </c>
       <c r="D553" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E553" s="2">
-        <v>44923.65097902778</v>
+        <v>44895.71458072917</v>
       </c>
       <c r="F553" s="2">
-        <v>44923.65097902778</v>
+        <v>44924.823958333334</v>
       </c>
       <c r="G553" t="s">
         <v>13</v>
       </c>
       <c r="H553" t="s">
-        <v>1743</v>
+        <v>118</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B554" t="s">
         <v>1744</v>
       </c>
-      <c r="B554" t="s">
+      <c r="C554" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D554" t="s">
+        <v>12</v>
+      </c>
+      <c r="E554" s="2">
+        <v>44923.65097902778</v>
+      </c>
+      <c r="F554" s="2">
+        <v>44923.65097902778</v>
+      </c>
+      <c r="G554" t="s">
+        <v>13</v>
+      </c>
+      <c r="H554" t="s">
         <v>1745</v>
-      </c>
-      <c r="C554" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D554" t="s">
-        <v>71</v>
-      </c>
-      <c r="E554" s="2">
-        <v>44859.93234023148</v>
-      </c>
-      <c r="F554" s="2">
-        <v>44859.93234023148</v>
-      </c>
-      <c r="G554" t="s">
-        <v>13</v>
-      </c>
-      <c r="H554" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B555" t="s">
         <v>1747</v>
       </c>
-      <c r="B555" t="s">
+      <c r="C555" t="s">
         <v>1748</v>
       </c>
-      <c r="C555" t="s">
-        <v>1749</v>
-      </c>
       <c r="D555" t="s">
         <v>71</v>
       </c>
       <c r="E555" s="2">
-        <v>44859.91952414352</v>
+        <v>44859.93234023148</v>
       </c>
       <c r="F555" s="2">
-        <v>44859.91952414352</v>
+        <v>44859.93234023148</v>
       </c>
       <c r="G555" t="s">
         <v>13</v>
       </c>
       <c r="H555" t="s">
-        <v>956</v>
+        <v>95</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B556" t="s">
         <v>1750</v>
       </c>
-      <c r="B556" t="s">
+      <c r="C556" t="s">
         <v>1751</v>
       </c>
-      <c r="C556" t="s">
-        <v>1752</v>
-      </c>
       <c r="D556" t="s">
         <v>71</v>
       </c>
       <c r="E556" s="2">
-        <v>44859.91882634259</v>
+        <v>44859.91952414352</v>
       </c>
       <c r="F556" s="2">
-        <v>44859.91882634259</v>
+        <v>44859.91952414352</v>
       </c>
       <c r="G556" t="s">
         <v>13</v>
       </c>
       <c r="H556" t="s">
-        <v>84</v>
+        <v>956</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B557" t="s">
         <v>1753</v>
       </c>
-      <c r="B557" t="s">
+      <c r="C557" t="s">
         <v>1754</v>
       </c>
-      <c r="C557" t="s">
-        <v>1755</v>
-      </c>
       <c r="D557" t="s">
         <v>71</v>
       </c>
       <c r="E557" s="2">
-        <v>44859.939209386575</v>
+        <v>44859.91882634259</v>
       </c>
       <c r="F557" s="2">
-        <v>44859.939209386575</v>
+        <v>44859.91882634259</v>
       </c>
       <c r="G557" t="s">
         <v>13</v>
       </c>
       <c r="H557" t="s">
-        <v>465</v>
+        <v>84</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B558" t="s">
         <v>1756</v>
       </c>
-      <c r="B558" t="s">
+      <c r="C558" t="s">
         <v>1757</v>
       </c>
-      <c r="C558" t="s">
-        <v>1758</v>
-      </c>
       <c r="D558" t="s">
         <v>71</v>
       </c>
       <c r="E558" s="2">
-        <v>44859.880303564816</v>
+        <v>44859.939209386575</v>
       </c>
       <c r="F558" s="2">
-        <v>44859.880303564816</v>
+        <v>44859.939209386575</v>
       </c>
       <c r="G558" t="s">
         <v>13</v>
       </c>
       <c r="H558" t="s">
-        <v>189</v>
+        <v>465</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B559" t="s">
         <v>1759</v>
       </c>
-      <c r="B559" t="s">
+      <c r="C559" t="s">
         <v>1760</v>
       </c>
-      <c r="C559" t="s">
-        <v>1761</v>
-      </c>
       <c r="D559" t="s">
         <v>71</v>
       </c>
       <c r="E559" s="2">
-        <v>44859.92407009259</v>
+        <v>44859.880303564816</v>
       </c>
       <c r="F559" s="2">
-        <v>44859.92407009259</v>
+        <v>44859.880303564816</v>
       </c>
       <c r="G559" t="s">
         <v>13</v>
       </c>
       <c r="H559" t="s">
-        <v>969</v>
+        <v>189</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B560" t="s">
         <v>1762</v>
       </c>
-      <c r="B560" t="s">
+      <c r="C560" t="s">
         <v>1763</v>
       </c>
-      <c r="C560" t="s">
-        <v>1764</v>
-      </c>
       <c r="D560" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E560" s="2">
-        <v>44909.68165225694</v>
+        <v>44859.92407009259</v>
       </c>
       <c r="F560" s="2">
-        <v>44909.68165225694</v>
+        <v>44859.92407009259</v>
       </c>
       <c r="G560" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H560" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B561" t="s">
         <v>1765</v>
       </c>
-      <c r="B561" t="s">
+      <c r="C561" t="s">
         <v>1766</v>
       </c>
-      <c r="C561" t="s">
-        <v>1767</v>
-      </c>
       <c r="D561" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E561" s="2">
-        <v>44859.93036726852</v>
+        <v>44909.68165225694</v>
       </c>
       <c r="F561" s="2">
-        <v>44859.93036726852</v>
+        <v>44909.68165225694</v>
       </c>
       <c r="G561" t="s">
-        <v>13</v>
-      </c>
-      <c r="H561" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B562" t="s">
         <v>1768</v>
       </c>
-      <c r="B562" t="s">
+      <c r="C562" t="s">
         <v>1769</v>
       </c>
-      <c r="C562" t="s">
-        <v>1770</v>
-      </c>
       <c r="D562" t="s">
         <v>71</v>
       </c>
       <c r="E562" s="2">
-        <v>44859.92473115741</v>
+        <v>44859.93036726852</v>
       </c>
       <c r="F562" s="2">
-        <v>44859.92473115741</v>
+        <v>44859.93036726852</v>
       </c>
       <c r="G562" t="s">
         <v>13</v>
       </c>
       <c r="H562" t="s">
-        <v>326</v>
+        <v>133</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B563" t="s">
         <v>1771</v>
       </c>
-      <c r="B563" t="s">
+      <c r="C563" t="s">
         <v>1772</v>
       </c>
-      <c r="C563" t="s">
-        <v>1773</v>
-      </c>
       <c r="D563" t="s">
         <v>71</v>
       </c>
       <c r="E563" s="2">
-        <v>44859.92919497685</v>
+        <v>44859.92473115741</v>
       </c>
       <c r="F563" s="2">
-        <v>44859.92919497685</v>
+        <v>44859.92473115741</v>
       </c>
       <c r="G563" t="s">
         <v>13</v>
       </c>
       <c r="H563" t="s">
-        <v>454</v>
+        <v>326</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B564" t="s">
         <v>1774</v>
       </c>
-      <c r="B564" t="s">
+      <c r="C564" t="s">
         <v>1775</v>
       </c>
-      <c r="C564" t="s">
-        <v>1776</v>
-      </c>
       <c r="D564" t="s">
         <v>71</v>
       </c>
       <c r="E564" s="2">
-        <v>44859.93186320602</v>
+        <v>44859.92919497685</v>
       </c>
       <c r="F564" s="2">
-        <v>44859.93186320602</v>
+        <v>44859.92919497685</v>
       </c>
       <c r="G564" t="s">
         <v>13</v>
       </c>
       <c r="H564" t="s">
-        <v>222</v>
+        <v>454</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B565" t="s">
         <v>1777</v>
       </c>
-      <c r="B565" t="s">
+      <c r="C565" t="s">
         <v>1778</v>
       </c>
-      <c r="C565" t="s">
-        <v>1779</v>
-      </c>
       <c r="D565" t="s">
         <v>71</v>
       </c>
       <c r="E565" s="2">
-        <v>44859.919450671296</v>
+        <v>44859.93186320602</v>
       </c>
       <c r="F565" s="2">
-        <v>44860.71628472222</v>
+        <v>44859.93186320602</v>
       </c>
       <c r="G565" t="s">
         <v>13</v>
       </c>
       <c r="H565" t="s">
-        <v>956</v>
+        <v>222</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B566" t="s">
         <v>1780</v>
       </c>
-      <c r="B566" t="s">
+      <c r="C566" t="s">
         <v>1781</v>
       </c>
-      <c r="C566" t="s">
-        <v>1782</v>
-      </c>
       <c r="D566" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E566" s="2">
-        <v>44883.71559357639</v>
+        <v>44859.919450671296</v>
       </c>
       <c r="F566" s="2">
-        <v>44883.73866898148</v>
+        <v>44860.71628472222</v>
       </c>
       <c r="G566" t="s">
         <v>13</v>
       </c>
       <c r="H566" t="s">
-        <v>354</v>
+        <v>956</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B567" t="s">
         <v>1783</v>
       </c>
-      <c r="B567" t="s">
+      <c r="C567" t="s">
         <v>1784</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1785</v>
       </c>
       <c r="D567" t="s">
         <v>12</v>
       </c>
       <c r="E567" s="2">
-        <v>44909.68691015046</v>
+        <v>44883.71559357639</v>
       </c>
       <c r="F567" s="2">
-        <v>44909.68691015046</v>
+        <v>44883.73866898148</v>
       </c>
       <c r="G567" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H567" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B568" t="s">
         <v>1786</v>
       </c>
-      <c r="B568" t="s">
+      <c r="C568" t="s">
         <v>1787</v>
       </c>
-      <c r="C568" t="s">
-        <v>1788</v>
-      </c>
       <c r="D568" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E568" s="2">
-        <v>44859.93503771991</v>
+        <v>44909.68691015046</v>
       </c>
       <c r="F568" s="2">
-        <v>44859.93503771991</v>
+        <v>44909.68691015046</v>
       </c>
       <c r="G568" t="s">
-        <v>13</v>
-      </c>
-      <c r="H568" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B569" t="s">
         <v>1789</v>
       </c>
-      <c r="B569" t="s">
+      <c r="C569" t="s">
         <v>1790</v>
       </c>
-      <c r="C569" t="s">
-        <v>1791</v>
-      </c>
       <c r="D569" t="s">
         <v>71</v>
       </c>
       <c r="E569" s="2">
-        <v>44859.927530879635</v>
+        <v>44859.93503771991</v>
       </c>
       <c r="F569" s="2">
-        <v>44859.927530879635</v>
+        <v>44859.93503771991</v>
       </c>
       <c r="G569" t="s">
         <v>13</v>
       </c>
       <c r="H569" t="s">
-        <v>1045</v>
+        <v>170</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B570" t="s">
         <v>1792</v>
       </c>
-      <c r="B570" t="s">
+      <c r="C570" t="s">
         <v>1793</v>
       </c>
-      <c r="C570" t="s">
-        <v>1794</v>
-      </c>
       <c r="D570" t="s">
         <v>71</v>
       </c>
       <c r="E570" s="2">
-        <v>44914.97788324074</v>
+        <v>44859.927530879635</v>
       </c>
       <c r="F570" s="2">
-        <v>44924.701319444444</v>
+        <v>44859.927530879635</v>
       </c>
       <c r="G570" t="s">
         <v>13</v>
       </c>
       <c r="H570" t="s">
-        <v>170</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B571" t="s">
         <v>1795</v>
       </c>
-      <c r="B571" t="s">
+      <c r="C571" t="s">
         <v>1796</v>
       </c>
-      <c r="C571" t="s">
-        <v>1797</v>
-      </c>
       <c r="D571" t="s">
         <v>71</v>
       </c>
       <c r="E571" s="2">
-        <v>44859.92428236111</v>
+        <v>44914.97788324074</v>
       </c>
       <c r="F571" s="2">
-        <v>44859.92428236111</v>
+        <v>44924.701319444444</v>
       </c>
       <c r="G571" t="s">
         <v>13</v>
       </c>
       <c r="H571" t="s">
-        <v>1225</v>
+        <v>170</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B572" t="s">
         <v>1798</v>
       </c>
-      <c r="B572" t="s">
+      <c r="C572" t="s">
         <v>1799</v>
       </c>
-      <c r="C572" t="s">
-        <v>1800</v>
-      </c>
       <c r="D572" t="s">
         <v>71</v>
       </c>
       <c r="E572" s="2">
-        <v>44859.93166702546</v>
+        <v>44859.92428236111</v>
       </c>
       <c r="F572" s="2">
-        <v>44859.93166702546</v>
+        <v>44859.92428236111</v>
       </c>
       <c r="G572" t="s">
         <v>13</v>
       </c>
       <c r="H572" t="s">
-        <v>593</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B573" t="s">
         <v>1801</v>
       </c>
-      <c r="B573" t="s">
+      <c r="C573" t="s">
         <v>1802</v>
       </c>
-      <c r="C573" t="s">
-        <v>1803</v>
-      </c>
       <c r="D573" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E573" s="2">
-        <v>44817.89361111111</v>
+        <v>44859.93166702546</v>
       </c>
       <c r="F573" s="2">
-        <v>44817.89361111111</v>
+        <v>44859.93166702546</v>
       </c>
       <c r="G573" t="s">
         <v>13</v>
       </c>
       <c r="H573" t="s">
-        <v>1804</v>
+        <v>593</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C574" t="s">
         <v>1805</v>
       </c>
-      <c r="B574" t="s">
+      <c r="D574" t="s">
+        <v>12</v>
+      </c>
+      <c r="E574" s="2">
+        <v>44817.89361111111</v>
+      </c>
+      <c r="F574" s="2">
+        <v>44817.89361111111</v>
+      </c>
+      <c r="G574" t="s">
+        <v>13</v>
+      </c>
+      <c r="H574" t="s">
         <v>1806</v>
-      </c>
-      <c r="C574" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D574" t="s">
-        <v>71</v>
-      </c>
-      <c r="E574" s="2">
-        <v>44859.92571710648</v>
-      </c>
-      <c r="F574" s="2">
-        <v>44859.92571710648</v>
-      </c>
-      <c r="G574" t="s">
-        <v>13</v>
-      </c>
-      <c r="H574" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B575" t="s">
         <v>1808</v>
       </c>
-      <c r="B575" t="s">
+      <c r="C575" t="s">
         <v>1809</v>
       </c>
-      <c r="C575" t="s">
-        <v>1810</v>
-      </c>
       <c r="D575" t="s">
         <v>71</v>
       </c>
       <c r="E575" s="2">
-        <v>44907.92593961806</v>
+        <v>44859.92571710648</v>
       </c>
       <c r="F575" s="2">
-        <v>44924.83335648148</v>
+        <v>44859.92571710648</v>
       </c>
       <c r="G575" t="s">
         <v>13</v>
@@ -20266,564 +20275,590 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B576" t="s">
         <v>1811</v>
       </c>
-      <c r="B576" t="s">
+      <c r="C576" t="s">
         <v>1812</v>
       </c>
-      <c r="C576" t="s">
-        <v>1813</v>
-      </c>
       <c r="D576" t="s">
         <v>71</v>
       </c>
       <c r="E576" s="2">
-        <v>44859.88371326389</v>
+        <v>44907.92593961806</v>
       </c>
       <c r="F576" s="2">
-        <v>44859.88371326389</v>
+        <v>44924.83335648148</v>
       </c>
       <c r="G576" t="s">
         <v>13</v>
       </c>
       <c r="H576" t="s">
-        <v>189</v>
+        <v>632</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B577" t="s">
         <v>1814</v>
       </c>
-      <c r="B577" t="s">
+      <c r="C577" t="s">
         <v>1815</v>
       </c>
-      <c r="C577" t="s">
-        <v>1816</v>
-      </c>
       <c r="D577" t="s">
         <v>71</v>
       </c>
       <c r="E577" s="2">
-        <v>44859.92557100694</v>
+        <v>44859.88371326389</v>
       </c>
       <c r="F577" s="2">
-        <v>44859.92557100694</v>
+        <v>44859.88371326389</v>
       </c>
       <c r="G577" t="s">
         <v>13</v>
       </c>
       <c r="H577" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B578" t="s">
         <v>1817</v>
       </c>
-      <c r="B578" t="s">
+      <c r="C578" t="s">
         <v>1818</v>
       </c>
-      <c r="C578" t="s">
-        <v>1819</v>
-      </c>
       <c r="D578" t="s">
         <v>71</v>
       </c>
       <c r="E578" s="2">
-        <v>44859.93311445602</v>
+        <v>44859.92557100694</v>
       </c>
       <c r="F578" s="2">
-        <v>44859.93311445602</v>
+        <v>44859.92557100694</v>
       </c>
       <c r="G578" t="s">
         <v>13</v>
       </c>
       <c r="H578" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B579" t="s">
         <v>1820</v>
       </c>
-      <c r="B579" t="s">
+      <c r="C579" t="s">
         <v>1821</v>
       </c>
-      <c r="C579" t="s">
-        <v>1822</v>
-      </c>
       <c r="D579" t="s">
         <v>71</v>
       </c>
       <c r="E579" s="2">
-        <v>44859.92781813657</v>
+        <v>44859.93311445602</v>
       </c>
       <c r="F579" s="2">
-        <v>44881.6962037037</v>
+        <v>44859.93311445602</v>
       </c>
       <c r="G579" t="s">
         <v>13</v>
       </c>
       <c r="H579" t="s">
-        <v>204</v>
+        <v>401</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B580" t="s">
         <v>1823</v>
       </c>
-      <c r="B580" t="s">
+      <c r="C580" t="s">
         <v>1824</v>
       </c>
-      <c r="C580" t="s">
-        <v>1825</v>
-      </c>
       <c r="D580" t="s">
         <v>71</v>
       </c>
       <c r="E580" s="2">
-        <v>44859.92323943287</v>
+        <v>44859.92781813657</v>
       </c>
       <c r="F580" s="2">
-        <v>44859.92323943287</v>
+        <v>44881.6962037037</v>
       </c>
       <c r="G580" t="s">
         <v>13</v>
       </c>
       <c r="H580" t="s">
-        <v>431</v>
+        <v>204</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B581" t="s">
         <v>1826</v>
       </c>
-      <c r="B581" t="s">
+      <c r="C581" t="s">
         <v>1827</v>
       </c>
-      <c r="C581" t="s">
-        <v>1828</v>
-      </c>
       <c r="D581" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E581" s="2">
-        <v>44677.83455465278</v>
+        <v>44859.92323943287</v>
       </c>
       <c r="F581" s="2">
-        <v>44677.83455465278</v>
+        <v>44859.92323943287</v>
       </c>
       <c r="G581" t="s">
-        <v>166</v>
+        <v>13</v>
+      </c>
+      <c r="H581" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B582" t="s">
         <v>1829</v>
       </c>
-      <c r="B582" t="s">
+      <c r="C582" t="s">
         <v>1830</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1831</v>
       </c>
       <c r="D582" t="s">
         <v>12</v>
       </c>
       <c r="E582" s="2">
-        <v>45065.87298541667</v>
+        <v>44677.83455465278</v>
       </c>
       <c r="F582" s="2">
-        <v>45065.87298541667</v>
+        <v>44677.83455465278</v>
       </c>
       <c r="G582" t="s">
-        <v>13</v>
-      </c>
-      <c r="H582" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B583" t="s">
         <v>1832</v>
       </c>
-      <c r="B583" t="s">
+      <c r="C583" t="s">
         <v>1833</v>
       </c>
-      <c r="C583" t="s">
-        <v>1834</v>
-      </c>
       <c r="D583" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E583" s="2">
-        <v>44859.93685438657</v>
+        <v>45065.87298541667</v>
       </c>
       <c r="F583" s="2">
-        <v>44859.93685438657</v>
+        <v>45065.87298541667</v>
       </c>
       <c r="G583" t="s">
         <v>13</v>
       </c>
       <c r="H583" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B584" t="s">
         <v>1835</v>
       </c>
-      <c r="B584" t="s">
+      <c r="C584" t="s">
         <v>1836</v>
       </c>
-      <c r="C584" t="s">
-        <v>1837</v>
-      </c>
       <c r="D584" t="s">
         <v>71</v>
       </c>
       <c r="E584" s="2">
-        <v>44859.91784002315</v>
+        <v>44859.93685438657</v>
       </c>
       <c r="F584" s="2">
-        <v>44859.91784002315</v>
+        <v>44859.93685438657</v>
       </c>
       <c r="G584" t="s">
         <v>13</v>
       </c>
       <c r="H584" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B585" t="s">
         <v>1838</v>
       </c>
-      <c r="B585" t="s">
+      <c r="C585" t="s">
         <v>1839</v>
       </c>
-      <c r="C585" t="s">
-        <v>1840</v>
-      </c>
       <c r="D585" t="s">
         <v>71</v>
       </c>
       <c r="E585" s="2">
-        <v>44914.89361133102</v>
+        <v>44859.91784002315</v>
       </c>
       <c r="F585" s="2">
-        <v>44915.93689814815</v>
+        <v>44859.91784002315</v>
       </c>
       <c r="G585" t="s">
         <v>13</v>
       </c>
       <c r="H585" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B586" t="s">
         <v>1841</v>
       </c>
-      <c r="B586" t="s">
+      <c r="C586" t="s">
         <v>1842</v>
       </c>
-      <c r="C586" t="s">
-        <v>1843</v>
-      </c>
       <c r="D586" t="s">
         <v>71</v>
       </c>
       <c r="E586" s="2">
-        <v>44859.93391032408</v>
+        <v>44914.89361133102</v>
       </c>
       <c r="F586" s="2">
-        <v>44859.93391032408</v>
+        <v>44915.93689814815</v>
       </c>
       <c r="G586" t="s">
         <v>13</v>
       </c>
       <c r="H586" t="s">
-        <v>387</v>
+        <v>122</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B587" t="s">
         <v>1844</v>
       </c>
-      <c r="B587" t="s">
+      <c r="C587" t="s">
         <v>1845</v>
       </c>
-      <c r="C587" t="s">
-        <v>1846</v>
-      </c>
       <c r="D587" t="s">
         <v>71</v>
       </c>
       <c r="E587" s="2">
-        <v>44859.92507938658</v>
+        <v>44859.93391032408</v>
       </c>
       <c r="F587" s="2">
-        <v>44859.92507938658</v>
+        <v>44859.93391032408</v>
       </c>
       <c r="G587" t="s">
         <v>13</v>
       </c>
       <c r="H587" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B588" t="s">
         <v>1847</v>
       </c>
-      <c r="B588" t="s">
+      <c r="C588" t="s">
         <v>1848</v>
       </c>
-      <c r="C588" t="s">
-        <v>1849</v>
-      </c>
       <c r="D588" t="s">
         <v>71</v>
       </c>
       <c r="E588" s="2">
-        <v>44859.936767858795</v>
+        <v>44859.92507938658</v>
       </c>
       <c r="F588" s="2">
-        <v>44859.936767858795</v>
+        <v>44859.92507938658</v>
       </c>
       <c r="G588" t="s">
         <v>13</v>
       </c>
       <c r="H588" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B589" t="s">
         <v>1850</v>
       </c>
-      <c r="B589" t="s">
+      <c r="C589" t="s">
         <v>1851</v>
       </c>
-      <c r="C589" t="s">
-        <v>1852</v>
-      </c>
       <c r="D589" t="s">
         <v>71</v>
       </c>
       <c r="E589" s="2">
-        <v>44859.93346822917</v>
+        <v>44859.936767858795</v>
       </c>
       <c r="F589" s="2">
-        <v>44859.93346822917</v>
+        <v>44859.936767858795</v>
       </c>
       <c r="G589" t="s">
         <v>13</v>
       </c>
       <c r="H589" t="s">
-        <v>1361</v>
+        <v>126</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B590" t="s">
         <v>1853</v>
       </c>
-      <c r="B590" t="s">
+      <c r="C590" t="s">
         <v>1854</v>
       </c>
-      <c r="C590" t="s">
-        <v>1855</v>
-      </c>
       <c r="D590" t="s">
         <v>71</v>
       </c>
       <c r="E590" s="2">
-        <v>44859.93545097222</v>
+        <v>44859.93346822917</v>
       </c>
       <c r="F590" s="2">
-        <v>44859.93545097222</v>
+        <v>44859.93346822917</v>
       </c>
       <c r="G590" t="s">
         <v>13</v>
       </c>
       <c r="H590" t="s">
-        <v>170</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B591" t="s">
         <v>1856</v>
       </c>
-      <c r="B591" t="s">
+      <c r="C591" t="s">
         <v>1857</v>
       </c>
-      <c r="C591" t="s">
-        <v>1858</v>
-      </c>
       <c r="D591" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E591" s="2">
-        <v>44904.71529572917</v>
+        <v>44859.93545097222</v>
       </c>
       <c r="F591" s="2">
-        <v>44904.71529572917</v>
+        <v>44859.93545097222</v>
       </c>
       <c r="G591" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H591" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B592" t="s">
         <v>1859</v>
       </c>
-      <c r="B592" t="s">
+      <c r="C592" t="s">
         <v>1860</v>
       </c>
-      <c r="C592" t="s">
-        <v>1861</v>
-      </c>
       <c r="D592" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E592" s="2">
-        <v>44859.9363703125</v>
+        <v>44904.71529572917</v>
       </c>
       <c r="F592" s="2">
-        <v>44859.9363703125</v>
+        <v>44904.71529572917</v>
       </c>
       <c r="G592" t="s">
-        <v>13</v>
-      </c>
-      <c r="H592" t="s">
-        <v>677</v>
+        <v>24</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B593" t="s">
         <v>1862</v>
       </c>
-      <c r="B593" t="s">
+      <c r="C593" t="s">
         <v>1863</v>
       </c>
-      <c r="C593" t="s">
-        <v>1864</v>
-      </c>
       <c r="D593" t="s">
         <v>71</v>
       </c>
       <c r="E593" s="2">
-        <v>44859.93697545139</v>
+        <v>44859.9363703125</v>
       </c>
       <c r="F593" s="2">
-        <v>44859.93697545139</v>
+        <v>44859.9363703125</v>
       </c>
       <c r="G593" t="s">
         <v>13</v>
       </c>
       <c r="H593" t="s">
-        <v>528</v>
+        <v>677</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B594" t="s">
         <v>1865</v>
       </c>
-      <c r="B594" t="s">
+      <c r="C594" t="s">
         <v>1866</v>
       </c>
-      <c r="C594" t="s">
-        <v>1867</v>
-      </c>
       <c r="D594" t="s">
         <v>71</v>
       </c>
       <c r="E594" s="2">
-        <v>44859.922119062496</v>
+        <v>44859.93697545139</v>
       </c>
       <c r="F594" s="2">
-        <v>44859.922119062496</v>
+        <v>44859.93697545139</v>
       </c>
       <c r="G594" t="s">
         <v>13</v>
       </c>
       <c r="H594" t="s">
-        <v>122</v>
+        <v>528</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B595" t="s">
         <v>1868</v>
       </c>
-      <c r="B595" t="s">
+      <c r="C595" t="s">
         <v>1869</v>
       </c>
-      <c r="C595" t="s">
-        <v>1870</v>
-      </c>
       <c r="D595" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E595" s="2">
-        <v>44909.683419560184</v>
+        <v>44859.922119062496</v>
       </c>
       <c r="F595" s="2">
-        <v>44909.683419560184</v>
+        <v>44859.922119062496</v>
       </c>
       <c r="G595" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H595" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B596" t="s">
         <v>1871</v>
       </c>
-      <c r="B596" t="s">
+      <c r="C596" t="s">
         <v>1872</v>
       </c>
-      <c r="C596" t="s">
-        <v>1873</v>
-      </c>
       <c r="D596" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E596" s="2">
-        <v>44859.91855137731</v>
+        <v>44909.683419560184</v>
       </c>
       <c r="F596" s="2">
-        <v>44859.91855137731</v>
+        <v>44909.683419560184</v>
       </c>
       <c r="G596" t="s">
-        <v>13</v>
-      </c>
-      <c r="H596" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B597" t="s">
         <v>1874</v>
       </c>
-      <c r="B597" t="s">
+      <c r="C597" t="s">
         <v>1875</v>
       </c>
-      <c r="C597" t="s">
+      <c r="D597" t="s">
+        <v>71</v>
+      </c>
+      <c r="E597" s="2">
+        <v>44859.91855137731</v>
+      </c>
+      <c r="F597" s="2">
+        <v>44859.91855137731</v>
+      </c>
+      <c r="G597" t="s">
+        <v>13</v>
+      </c>
+      <c r="H597" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
         <v>1876</v>
       </c>
-      <c r="D597" t="s">
-        <v>71</v>
-      </c>
-      <c r="E597" s="2">
+      <c r="B598" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D598" t="s">
+        <v>71</v>
+      </c>
+      <c r="E598" s="2">
         <v>44859.91792315972</v>
       </c>
-      <c r="F597" s="2">
+      <c r="F598" s="2">
         <v>44859.91792315972</v>
       </c>
-      <c r="G597" t="s">
-        <v>13</v>
-      </c>
-      <c r="H597" t="s">
+      <c r="G598" t="s">
+        <v>13</v>
+      </c>
+      <c r="H598" t="s">
         <v>189</v>
       </c>
     </row>
